--- a/conf/Table_Aptitudes_Type_aptitudes_Caracteristique_JDR_2R.xlsx
+++ b/conf/Table_Aptitudes_Type_aptitudes_Caracteristique_JDR_2R.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Projets\jdr2d\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE58D61-1184-41E3-9B02-4BF8E7B34FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C528CC36-DACC-46EA-9042-2308D76FE940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{34F6F82D-5E26-4D0F-A51F-90A17C34A5CE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{34F6F82D-5E26-4D0F-A51F-90A17C34A5CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Aptitude" sheetId="2" r:id="rId2"/>
+    <sheet name="Caractéristique" sheetId="3" r:id="rId3"/>
+    <sheet name="Type_aptitude" sheetId="4" r:id="rId4"/>
+    <sheet name="Lieu" sheetId="5" r:id="rId5"/>
+    <sheet name="Objectif" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="197">
   <si>
     <t>type_aptitude</t>
   </si>
@@ -421,6 +425,210 @@
   </si>
   <si>
     <t>plante une graine sur une cible allié et la soigne sur la durée pdt 10 sec OU une cible ennemie et lui inflige des dgt de nature sur la durée pdt 5 sec</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>LIEU</t>
+  </si>
+  <si>
+    <t>id_lieu</t>
+  </si>
+  <si>
+    <t>nom_lieu</t>
+  </si>
+  <si>
+    <t>description_lieu</t>
+  </si>
+  <si>
+    <t>carte_lieu</t>
+  </si>
+  <si>
+    <t>Bad-town</t>
+  </si>
+  <si>
+    <t>la reine</t>
+  </si>
+  <si>
+    <t>la bête</t>
+  </si>
+  <si>
+    <t>scissor palace</t>
+  </si>
+  <si>
+    <t>lennybar</t>
+  </si>
+  <si>
+    <t>Profit-city</t>
+  </si>
+  <si>
+    <t>black market</t>
+  </si>
+  <si>
+    <t>lehman sisters</t>
+  </si>
+  <si>
+    <t>place-2-B</t>
+  </si>
+  <si>
+    <t>treump shop</t>
+  </si>
+  <si>
+    <t>Nainportnawak</t>
+  </si>
+  <si>
+    <t>maxilase</t>
+  </si>
+  <si>
+    <t>flunchbar</t>
+  </si>
+  <si>
+    <t>park in son</t>
+  </si>
+  <si>
+    <t>in &amp; out</t>
+  </si>
+  <si>
+    <t>Elf village</t>
+  </si>
+  <si>
+    <t>msncircus</t>
+  </si>
+  <si>
+    <t>pirate search</t>
+  </si>
+  <si>
+    <t>daddy awards</t>
+  </si>
+  <si>
+    <t>potatoe valley</t>
+  </si>
+  <si>
+    <t>La croisée</t>
+  </si>
+  <si>
+    <t>Ville des orcs</t>
+  </si>
+  <si>
+    <t>Lieu de combat n°1</t>
+  </si>
+  <si>
+    <t>Centre de pari sur les combats</t>
+  </si>
+  <si>
+    <t>Un casino</t>
+  </si>
+  <si>
+    <t>La taverne, idéal pour s''amuser</t>
+  </si>
+  <si>
+    <t>Ville des humains</t>
+  </si>
+  <si>
+    <t>Le marché : pour acheter, vendre et échanger</t>
+  </si>
+  <si>
+    <t>La banque</t>
+  </si>
+  <si>
+    <t>La place centrale de la ville</t>
+  </si>
+  <si>
+    <t>Magasin d''armures</t>
+  </si>
+  <si>
+    <t>Ville des nains</t>
+  </si>
+  <si>
+    <t>Magasin de potions</t>
+  </si>
+  <si>
+    <t>La taverne des nains, l''alccol coule à flot !</t>
+  </si>
+  <si>
+    <t>Joli parc pour ce détendre</t>
+  </si>
+  <si>
+    <t>Restaurant de spécialités locales</t>
+  </si>
+  <si>
+    <t>Ville des elfes</t>
+  </si>
+  <si>
+    <t>Place pour discuter et faire des rencontres</t>
+  </si>
+  <si>
+    <t>Zone pour aller chercher de nouvelles quêtes</t>
+  </si>
+  <si>
+    <t>Centre de récompences pour les quêtes</t>
+  </si>
+  <si>
+    <t>Potager de légumes</t>
+  </si>
+  <si>
+    <t>Là où tout les chemins se croisent</t>
+  </si>
+  <si>
+    <t>OBJECTIF</t>
+  </si>
+  <si>
+    <t>id_objectif</t>
+  </si>
+  <si>
+    <t>nom_objectif</t>
+  </si>
+  <si>
+    <t>description_objectif</t>
+  </si>
+  <si>
+    <t>validation_objectif</t>
+  </si>
+  <si>
+    <t>recuperer du houblon (Alain Chichon)</t>
+  </si>
+  <si>
+    <t>recuperer un fut (Maitre Kanter)</t>
+  </si>
+  <si>
+    <t>recuperer un élement secret (Chie mi Hendrix)</t>
+  </si>
+  <si>
+    <t>Aller tuer 4 chauves souris</t>
+  </si>
+  <si>
+    <t>Aller recuperer l''arme chez Durdur</t>
+  </si>
+  <si>
+    <t>Tuer Dracula (Jean Marie le PNJ)</t>
+  </si>
+  <si>
+    <t>Aller voir Hippique-sous pour avoir des infos</t>
+  </si>
+  <si>
+    <t>Donner des sousous à Durdur pour avoir une casquette à pointe afin de récupérer une boubourse à son concours de lancer de pommes</t>
+  </si>
+  <si>
+    <t>Retourner voir Benard Tappir et lui donner la boubourse gagner au concours de lancer de pomme</t>
+  </si>
+  <si>
+    <t>Combattre à l''arene</t>
+  </si>
+  <si>
+    <t>Choisir de tuer ou non Bours-La</t>
+  </si>
+  <si>
+    <t>Aller voir Nana Moule Curry pour récuperer la potion() a vendu la derniere potion au casino) elle lui donne une musse tongue à la place</t>
+  </si>
+  <si>
+    <t>rejoindre Lost Vegas au Scissor Palace</t>
+  </si>
+  <si>
+    <t>visiter le tunnel du pont en musse tongue avec Die Anna</t>
   </si>
 </sst>
 </file>
@@ -519,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -527,15 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -556,6 +755,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2945,1068 +3160,692 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4908D6-739E-487D-92BB-5EB515A84962}">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="7"/>
-      <c r="R1" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="12"/>
+      <c r="A1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="9"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="12"/>
-      <c r="R2" s="11" t="s">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="11" t="s">
+      <c r="V2" s="9"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="8">
+        <v>1</v>
+      </c>
+      <c r="V3" s="9"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="8">
+        <v>1</v>
+      </c>
+      <c r="V4" s="9"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="U2" s="12"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="B5" s="13"/>
+      <c r="C5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10"/>
-      <c r="R3" s="11">
+      <c r="V5" s="9"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="8">
         <v>1</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="U3" s="10"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="V6" s="9"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="8">
+        <v>1</v>
+      </c>
+      <c r="V7" s="9"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="9"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="8">
+        <v>1</v>
+      </c>
+      <c r="V9" s="9"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="8">
+        <v>1</v>
+      </c>
+      <c r="V10" s="9"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="10"/>
-      <c r="R4" s="11">
+      <c r="V11" s="9"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="8">
         <v>2</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="U4" s="10"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="V12" s="9"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="8">
+        <v>2</v>
+      </c>
+      <c r="V13" s="9"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="8">
+        <v>2</v>
+      </c>
+      <c r="V14" s="9"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="8">
+        <v>2</v>
+      </c>
+      <c r="V15" s="9"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="10"/>
-      <c r="R5" s="11">
+      <c r="V16" s="9"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="8">
         <v>3</v>
       </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="U5" s="10"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="V17" s="9"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="8">
+        <v>3</v>
+      </c>
+      <c r="V18" s="9"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="10"/>
-      <c r="R6" s="11">
+      <c r="V19" s="9"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="8">
         <v>4</v>
       </c>
-      <c r="S6" s="12"/>
-      <c r="T6" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="U6" s="10"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="12"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="V14" s="12"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>1</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="11">
-        <v>1</v>
-      </c>
-      <c r="V15" s="12"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>2</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="11">
-        <v>1</v>
-      </c>
-      <c r="V16" s="12"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>3</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="11">
-        <v>1</v>
-      </c>
-      <c r="V17" s="12"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>4</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="11">
-        <v>1</v>
-      </c>
-      <c r="V18" s="12"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>5</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="11">
-        <v>1</v>
-      </c>
-      <c r="V19" s="12"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>6</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="11">
-        <v>1</v>
-      </c>
-      <c r="V20" s="12"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>7</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="11">
-        <v>1</v>
-      </c>
-      <c r="V21" s="12"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>8</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="11">
-        <v>1</v>
-      </c>
-      <c r="V22" s="12"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>9</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="11">
-        <v>2</v>
-      </c>
-      <c r="V23" s="12"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>10</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="11">
-        <v>2</v>
-      </c>
-      <c r="V24" s="12"/>
+      <c r="V20" s="9"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>11</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="11">
-        <v>2</v>
-      </c>
-      <c r="V25" s="12"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>12</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="11">
-        <v>2</v>
-      </c>
-      <c r="V26" s="12"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
-        <v>13</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="11">
-        <v>2</v>
-      </c>
-      <c r="V27" s="12"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>14</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="11">
-        <v>3</v>
-      </c>
-      <c r="V28" s="12"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>15</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="11">
-        <v>3</v>
-      </c>
-      <c r="V29" s="12"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>16</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="11">
-        <v>3</v>
-      </c>
-      <c r="V30" s="12"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>17</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="11">
-        <v>4</v>
-      </c>
-      <c r="V31" s="12"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>18</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="11">
-        <v>4</v>
-      </c>
-      <c r="V32" s="12"/>
+      <c r="G25" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="I22:T22"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I14:T14"/>
-    <mergeCell ref="I15:T15"/>
-    <mergeCell ref="I16:T16"/>
-    <mergeCell ref="I17:T17"/>
-    <mergeCell ref="I18:T18"/>
-    <mergeCell ref="I19:T19"/>
-    <mergeCell ref="I20:T20"/>
-    <mergeCell ref="I21:T21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A13:V13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="I23:T23"/>
-    <mergeCell ref="I24:T24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="I32:T32"/>
-    <mergeCell ref="I26:T26"/>
-    <mergeCell ref="I27:T27"/>
-    <mergeCell ref="I28:T28"/>
-    <mergeCell ref="I29:T29"/>
-    <mergeCell ref="I30:T30"/>
-    <mergeCell ref="I31:T31"/>
-    <mergeCell ref="I25:T25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="E5:P5"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="E7:P7"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="E9:P9"/>
-    <mergeCell ref="E10:P10"/>
+  <mergeCells count="115">
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I3:T3"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
+    <mergeCell ref="I6:T6"/>
+    <mergeCell ref="I7:T7"/>
+    <mergeCell ref="I8:T8"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
@@ -4019,18 +3858,1549 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="I20:T20"/>
+    <mergeCell ref="I14:T14"/>
+    <mergeCell ref="I15:T15"/>
+    <mergeCell ref="I16:T16"/>
+    <mergeCell ref="I17:T17"/>
+    <mergeCell ref="I18:T18"/>
+    <mergeCell ref="I19:T19"/>
+    <mergeCell ref="I13:T13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="I11:T11"/>
+    <mergeCell ref="I12:T12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:T9"/>
+    <mergeCell ref="I10:T10"/>
+    <mergeCell ref="U9:V9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB608F9-2173-40A5-A1E8-A4A15644AA90}">
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:P10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:P9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:P4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:P5"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:P2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="E3:P3"/>
-    <mergeCell ref="E4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BE3506-FD41-4146-93F4-2CE3BF7C175F}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0028CF7F-1952-4BDC-8711-26B3376B7164}">
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="6" max="7" width="10" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="15"/>
+      <c r="K3" t="str">
+        <f>A2&amp;", "&amp;B2&amp;", "&amp;D2&amp;", "&amp;H2</f>
+        <v>id_lieu, nom_lieu, description_lieu, carte_lieu</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="15"/>
+      <c r="J4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" t="str">
+        <f>(A3&amp;", '"&amp;B3&amp;"', '"&amp;D3)</f>
+        <v>1, 'Bad-town', 'Ville des orcs</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="15"/>
+      <c r="J5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" t="str">
+        <f>(A4&amp;", '"&amp;B4&amp;"', '"&amp;D4)</f>
+        <v>2, 'la reine', 'Lieu de combat n°1</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="15"/>
+      <c r="J6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" t="str">
+        <f>(A5&amp;", '"&amp;B5&amp;"', '"&amp;D5)</f>
+        <v>3, 'la bête', 'Centre de pari sur les combats</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="15"/>
+      <c r="J7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" t="str">
+        <f>(A6&amp;", '"&amp;B6&amp;"', '"&amp;D6)</f>
+        <v>4, 'scissor palace', 'Un casino</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="15"/>
+      <c r="J8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" t="str">
+        <f>(A7&amp;", '"&amp;B7&amp;"', '"&amp;D7)</f>
+        <v>5, 'lennybar', 'La taverne, idéal pour s''amuser</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="15"/>
+      <c r="J9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" t="str">
+        <f>(A8&amp;", '"&amp;B8&amp;"', '"&amp;D8)</f>
+        <v>6, 'Profit-city', 'Ville des humains</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="15"/>
+      <c r="J10" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" t="str">
+        <f>(A9&amp;", '"&amp;B9&amp;"', '"&amp;D9)</f>
+        <v>7, 'black market', 'Le marché : pour acheter, vendre et échanger</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="15"/>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="str">
+        <f>(A10&amp;", '"&amp;B10&amp;"', '"&amp;D10)</f>
+        <v>8, 'lehman sisters', 'La banque</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="15"/>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="str">
+        <f>(A11&amp;", '"&amp;B11&amp;"', '"&amp;D11)</f>
+        <v>9, 'place-2-B', 'La place centrale de la ville</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="15"/>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="str">
+        <f>(A12&amp;", '"&amp;B12&amp;"', '"&amp;D12)</f>
+        <v>10, 'treump shop', 'Magasin d''armures</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="15"/>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="str">
+        <f>(A13&amp;", '"&amp;B13&amp;"', '"&amp;D13)</f>
+        <v>11, 'Nainportnawak', 'Ville des nains</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="15"/>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="str">
+        <f>(A14&amp;", '"&amp;B14&amp;"', '"&amp;D14)</f>
+        <v>12, 'maxilase', 'Magasin de potions</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="15"/>
+      <c r="J16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" t="str">
+        <f>(A15&amp;", '"&amp;B15&amp;"', '"&amp;D15)</f>
+        <v>13, 'flunchbar', 'La taverne des nains, l''alccol coule à flot !</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="15"/>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" t="str">
+        <f>(A16&amp;", '"&amp;B16&amp;"', '"&amp;D16)</f>
+        <v>14, 'park in son', 'Joli parc pour ce détendre</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="15"/>
+      <c r="J18" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" t="str">
+        <f>(A17&amp;", '"&amp;B17&amp;"', '"&amp;D17)</f>
+        <v>15, 'in &amp; out', 'Restaurant de spécialités locales</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="15"/>
+      <c r="J19" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" t="str">
+        <f>(A18&amp;", '"&amp;B18&amp;"', '"&amp;D18)</f>
+        <v>16, 'Elf village', 'Ville des elfes</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="15"/>
+      <c r="J20" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" t="str">
+        <f>(A19&amp;", '"&amp;B19&amp;"', '"&amp;D19)</f>
+        <v>17, 'msncircus', 'Place pour discuter et faire des rencontres</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="15"/>
+      <c r="J21" t="s">
+        <v>129</v>
+      </c>
+      <c r="K21" t="str">
+        <f>(A20&amp;", '"&amp;B20&amp;"', '"&amp;D20)</f>
+        <v>18, 'pirate search', 'Zone pour aller chercher de nouvelles quêtes</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="15"/>
+      <c r="J22" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" t="str">
+        <f>(A21&amp;", '"&amp;B21&amp;"', '"&amp;D21)</f>
+        <v>19, 'daddy awards', 'Centre de récompences pour les quêtes</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="15"/>
+      <c r="J23" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" t="str">
+        <f>(A22&amp;", '"&amp;B22&amp;"', '"&amp;D22)</f>
+        <v>20, 'potatoe valley', 'Potager de légumes</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" t="str">
+        <f>(A23&amp;", '"&amp;B23&amp;"', '"&amp;D23)</f>
+        <v>21, 'La croisée', 'Là où tout les chemins se croisent</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577DA391-A061-463E-9151-E75A84D4AE68}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="P2" s="13"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="D13:N13"/>
+    <mergeCell ref="D14:N14"/>
+    <mergeCell ref="D15:N15"/>
+    <mergeCell ref="D16:N16"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D11:N11"/>
+    <mergeCell ref="D12:N12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D2:N2"/>
+    <mergeCell ref="D3:N3"/>
+    <mergeCell ref="D4:N4"/>
+    <mergeCell ref="D5:N5"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/conf/Table_Aptitudes_Type_aptitudes_Caracteristique_JDR_2R.xlsx
+++ b/conf/Table_Aptitudes_Type_aptitudes_Caracteristique_JDR_2R.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Projets\jdr2d\conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\projets_afpa\jdr2d\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C528CC36-DACC-46EA-9042-2308D76FE940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EAD837-F7DA-441A-BEDB-68A13B79FCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{34F6F82D-5E26-4D0F-A51F-90A17C34A5CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="9" xr2:uid="{34F6F82D-5E26-4D0F-A51F-90A17C34A5CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="Type_aptitude" sheetId="4" r:id="rId4"/>
     <sheet name="Lieu" sheetId="5" r:id="rId5"/>
     <sheet name="Objectif" sheetId="6" r:id="rId6"/>
+    <sheet name="Classe" sheetId="7" r:id="rId7"/>
+    <sheet name="Race" sheetId="8" r:id="rId8"/>
+    <sheet name="Type_objet" sheetId="9" r:id="rId9"/>
+    <sheet name="Objet" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="413">
   <si>
     <t>type_aptitude</t>
   </si>
@@ -629,13 +633,661 @@
   </si>
   <si>
     <t>visiter le tunnel du pont en musse tongue avec Die Anna</t>
+  </si>
+  <si>
+    <t>CLASSE</t>
+  </si>
+  <si>
+    <t>id_classe</t>
+  </si>
+  <si>
+    <t>nom_classe</t>
+  </si>
+  <si>
+    <t>description_classe</t>
+  </si>
+  <si>
+    <t>jouable_classe</t>
+  </si>
+  <si>
+    <t>RACE</t>
+  </si>
+  <si>
+    <t>id_race</t>
+  </si>
+  <si>
+    <t>nom_race</t>
+  </si>
+  <si>
+    <t>description_race</t>
+  </si>
+  <si>
+    <t>jouable_race</t>
+  </si>
+  <si>
+    <t>Humains</t>
+  </si>
+  <si>
+    <t>Nains</t>
+  </si>
+  <si>
+    <t>Elfes</t>
+  </si>
+  <si>
+    <t>Orques</t>
+  </si>
+  <si>
+    <t>Rat</t>
+  </si>
+  <si>
+    <t>Chauve souris</t>
+  </si>
+  <si>
+    <t>Ambitieux, parfois héroïques, mais toujours confiants, les humains sont capables de travailler ensemble pour atteindre des objectifs communs, ce qui fait d’eux une puissance à ne pas négliger. Ils ont une espérance de vie réduite par rapport aux autres races, mais leur énergie sans limites et leurs passions leur permettent d’accomplir beaucoup de choses malgré leur brève existence.</t>
+  </si>
+  <si>
+    <t>On pense souvent que ces défenseurs des villes montagneuses petits et râblés sont sévères et dépourvus de tout sens de l’humour. Ils sont connus pour être des grand industriels dont les produit sont toujours d'une grande qualité et pour avoir une affinité particulière avec les richesses cachées dans les entrailles de la terre. Les nains ont aussi tendance à s’isoler et à se replier sur leurs traditions, au point de sombrer parfois dans la xénophobie.</t>
+  </si>
+  <si>
+    <t>Grands, nobles et souvent hautains, les elfes à la longue espérance de vie sont les maîtres subtils de la nature. Ils excellent dans les arts magiques et utilisent souvent leur lien inné avec la nature pour inventer de nouveaux sorts et fabriquer de merveilleux objets qui, comme leurs créateurs, semblent presque hors d’atteinte des ravages du temps. Les elfes forment une race secrète et souvent introvertie, qui donne parfois l’impression d’être imperméable aux suppliques d’autrui.</t>
+  </si>
+  <si>
+    <t>Sauvages, brutaux et résistants, les orques sont souvent le fléau des lointaines étendues naturelles et des grottes profondes. Beaucoup deviennent de redoutables mercenaires, du fait de leur stature musculeuse et de leur tendance à entrer dans des rages sanglantes. Les quelques rares qui parviennent à contrôler leur soif de sang font d’excellents aventuriers.</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TYPE_OBJET</t>
+  </si>
+  <si>
+    <t>id_type_objet</t>
+  </si>
+  <si>
+    <t>nom_type_objet</t>
+  </si>
+  <si>
+    <t>emplacement_objet</t>
+  </si>
+  <si>
+    <t>poids_objet</t>
+  </si>
+  <si>
+    <t>arme distance</t>
+  </si>
+  <si>
+    <t>arme à 2 mains</t>
+  </si>
+  <si>
+    <t>arme cac</t>
+  </si>
+  <si>
+    <t>casque</t>
+  </si>
+  <si>
+    <t>armure</t>
+  </si>
+  <si>
+    <t>gants</t>
+  </si>
+  <si>
+    <t>pantalons</t>
+  </si>
+  <si>
+    <t>chaussures</t>
+  </si>
+  <si>
+    <t>potions</t>
+  </si>
+  <si>
+    <t>Monnaies</t>
+  </si>
+  <si>
+    <t>objet de quetes</t>
+  </si>
+  <si>
+    <t>Décor</t>
+  </si>
+  <si>
+    <t>slotArme1</t>
+  </si>
+  <si>
+    <t>slotArme2</t>
+  </si>
+  <si>
+    <t>slotArme1 &amp; slotArme2</t>
+  </si>
+  <si>
+    <t>slotTete</t>
+  </si>
+  <si>
+    <t>slotTorse</t>
+  </si>
+  <si>
+    <t>slotMains</t>
+  </si>
+  <si>
+    <t>slotJambes</t>
+  </si>
+  <si>
+    <t>slotPieds</t>
+  </si>
+  <si>
+    <t>OBJET</t>
+  </si>
+  <si>
+    <t>id_objet</t>
+  </si>
+  <si>
+    <t>nom_objet</t>
+  </si>
+  <si>
+    <t>statistique_objet</t>
+  </si>
+  <si>
+    <t>pourcentage_effet_objet</t>
+  </si>
+  <si>
+    <t>equipe_objet</t>
+  </si>
+  <si>
+    <t>ouvert_objet</t>
+  </si>
+  <si>
+    <t>description_objet</t>
+  </si>
+  <si>
+    <t>prix_objet</t>
+  </si>
+  <si>
+    <t>fusil Lorrain</t>
+  </si>
+  <si>
+    <t>paprik'arme</t>
+  </si>
+  <si>
+    <t>lance saucisse</t>
+  </si>
+  <si>
+    <t>Patator</t>
+  </si>
+  <si>
+    <t>arbalais</t>
+  </si>
+  <si>
+    <t>la boule de pétoncle</t>
+  </si>
+  <si>
+    <t>pestolet</t>
+  </si>
+  <si>
+    <t>couperet bretzel</t>
+  </si>
+  <si>
+    <t>rôtisseur</t>
+  </si>
+  <si>
+    <t>la pelle forte</t>
+  </si>
+  <si>
+    <t>batte ail</t>
+  </si>
+  <si>
+    <t>la fausse croix</t>
+  </si>
+  <si>
+    <t>poing chope</t>
+  </si>
+  <si>
+    <t>dague Ober</t>
+  </si>
+  <si>
+    <t>couilletau</t>
+  </si>
+  <si>
+    <t>dardvador</t>
+  </si>
+  <si>
+    <t>porc table</t>
+  </si>
+  <si>
+    <t>jason tatane</t>
+  </si>
+  <si>
+    <t>bonnet m</t>
+  </si>
+  <si>
+    <t>casquette a pointe</t>
+  </si>
+  <si>
+    <t>k-lotte</t>
+  </si>
+  <si>
+    <t>kippab</t>
+  </si>
+  <si>
+    <t>baie raie</t>
+  </si>
+  <si>
+    <t>plas'thon</t>
+  </si>
+  <si>
+    <t>plas'tèque</t>
+  </si>
+  <si>
+    <t>côte de beauf</t>
+  </si>
+  <si>
+    <t>l'ainée</t>
+  </si>
+  <si>
+    <t>pull ovaire</t>
+  </si>
+  <si>
+    <t>gants stères</t>
+  </si>
+  <si>
+    <t>mie Teigne</t>
+  </si>
+  <si>
+    <t>bollet rouge</t>
+  </si>
+  <si>
+    <t>croque mie teigne</t>
+  </si>
+  <si>
+    <t>gant de toilette</t>
+  </si>
+  <si>
+    <t>bretelle</t>
+  </si>
+  <si>
+    <t>bas thon</t>
+  </si>
+  <si>
+    <t>benne laden</t>
+  </si>
+  <si>
+    <t>beer muda</t>
+  </si>
+  <si>
+    <t>fûtal</t>
+  </si>
+  <si>
+    <t>crocs</t>
+  </si>
+  <si>
+    <t>bas bouche</t>
+  </si>
+  <si>
+    <t>adaddas</t>
+  </si>
+  <si>
+    <t>les talons</t>
+  </si>
+  <si>
+    <t>musse tongue</t>
+  </si>
+  <si>
+    <t>pinte</t>
+  </si>
+  <si>
+    <t>tord boyaux</t>
+  </si>
+  <si>
+    <t>Sheba</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>grogs</t>
+  </si>
+  <si>
+    <t>ukranium</t>
+  </si>
+  <si>
+    <t>muscat death</t>
+  </si>
+  <si>
+    <t>houmous tache</t>
+  </si>
+  <si>
+    <t>tsar tziki</t>
+  </si>
+  <si>
+    <t>potion magique</t>
+  </si>
+  <si>
+    <t>asperule</t>
+  </si>
+  <si>
+    <t>sauce dallas</t>
+  </si>
+  <si>
+    <t>sauce biggy</t>
+  </si>
+  <si>
+    <t>sauce hannibal</t>
+  </si>
+  <si>
+    <t>sauce blanche</t>
+  </si>
+  <si>
+    <t>barbie turique</t>
+  </si>
+  <si>
+    <t>amnesia</t>
+  </si>
+  <si>
+    <t>algoflash</t>
+  </si>
+  <si>
+    <t>le sang du christ</t>
+  </si>
+  <si>
+    <t>valium</t>
+  </si>
+  <si>
+    <t>bezoard</t>
+  </si>
+  <si>
+    <t>collyre</t>
+  </si>
+  <si>
+    <t>schneck</t>
+  </si>
+  <si>
+    <t>epinephrine</t>
+  </si>
+  <si>
+    <t>vega missile</t>
+  </si>
+  <si>
+    <t>red boule</t>
+  </si>
+  <si>
+    <t>bipbip</t>
+  </si>
+  <si>
+    <t>le coyotte</t>
+  </si>
+  <si>
+    <t>Boubourse</t>
+  </si>
+  <si>
+    <t>houblon</t>
+  </si>
+  <si>
+    <t>fut</t>
+  </si>
+  <si>
+    <t>sachet</t>
+  </si>
+  <si>
+    <t>mur</t>
+  </si>
+  <si>
+    <t>banc</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>fleurs</t>
+  </si>
+  <si>
+    <t>rochers</t>
+  </si>
+  <si>
+    <t>lampadaire</t>
+  </si>
+  <si>
+    <t>statue</t>
+  </si>
+  <si>
+    <t>tente</t>
+  </si>
+  <si>
+    <t>fontaine</t>
+  </si>
+  <si>
+    <t>petite maison</t>
+  </si>
+  <si>
+    <t>mur de berlin</t>
+  </si>
+  <si>
+    <t>seau</t>
+  </si>
+  <si>
+    <t>clôture</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Fusil légendaire de Lorraine, capable d'envoyer des fuseaux a 50 km/h</t>
+  </si>
+  <si>
+    <t>Le piment le plus fort de tous les héros</t>
+  </si>
+  <si>
+    <t>De son vrai nom große würst</t>
+  </si>
+  <si>
+    <t>Le traditionnel lance patate Russe utiliser par Poutine en Ukraine</t>
+  </si>
+  <si>
+    <t>Monsieur Potter, merci de ramener le balais</t>
+  </si>
+  <si>
+    <t>Célébre boule du comédon Cousteau</t>
+  </si>
+  <si>
+    <t>Ajouter du basilic, de l'ail et des François pignon et du parmesan on obtient cette arme légendaire</t>
+  </si>
+  <si>
+    <t>Apparut en Alsace pendant la période des spaetzle du cervelas et de la choucroute en l'an 69</t>
+  </si>
+  <si>
+    <t>Célèbre arme du colonel Sander</t>
+  </si>
+  <si>
+    <t>Merci Berny pour votre invention autoroutiere</t>
+  </si>
+  <si>
+    <t>Arme favorite de Blade</t>
+  </si>
+  <si>
+    <t>Arme légendaire de nazareth</t>
+  </si>
+  <si>
+    <t>Mélange entre chopine et poing ricain</t>
+  </si>
+  <si>
+    <t>Mais qui l'a mise à l'envers ?</t>
+  </si>
+  <si>
+    <t>Crustacé qui sent la marais</t>
+  </si>
+  <si>
+    <t>Aussi rouge que le sabre</t>
+  </si>
+  <si>
+    <t>Mi porc, mi ours, mi homme,,, Je m'égare il est seulement mi table</t>
+  </si>
+  <si>
+    <t>Pour les puristes de la bagarre</t>
+  </si>
+  <si>
+    <t>Le sugar daddy cool des chapias</t>
+  </si>
+  <si>
+    <t>Célèbre casquette germanique, utilisée dans les concours de lancer de pomme</t>
+  </si>
+  <si>
+    <t>Arme célèbre de la confrérie Lopez, 100% cuivre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salade tomate oignon du chapeau </t>
+  </si>
+  <si>
+    <t>Le fruit qui résume bien la situation " l'abricôt"</t>
+  </si>
+  <si>
+    <t>Construite en boite de petit navire</t>
+  </si>
+  <si>
+    <t>Manger 5 fruits et légumes par jours</t>
+  </si>
+  <si>
+    <t>Parfait pour les soirées tuning</t>
+  </si>
+  <si>
+    <t>Allez voir sur wikipédia</t>
+  </si>
+  <si>
+    <t>Bien mieux que le col roulé</t>
+  </si>
+  <si>
+    <t>Parfait pour ramasser le bois</t>
+  </si>
+  <si>
+    <t>Boulanger tétu de renommé</t>
+  </si>
+  <si>
+    <t>Célébre coiffe du comédon Cousteau</t>
+  </si>
+  <si>
+    <t>Croque monsieur du boulanger</t>
+  </si>
+  <si>
+    <t>Progéniture de Servietski</t>
+  </si>
+  <si>
+    <t>Et porte jartelle</t>
+  </si>
+  <si>
+    <t>Le leggings du comédon Cousteau</t>
+  </si>
+  <si>
+    <t>Enfilez vos deux jambes dedans</t>
+  </si>
+  <si>
+    <t>Mi jaune mi blanc</t>
+  </si>
+  <si>
+    <t>Parfait pour protéger votre trou du fût</t>
+  </si>
+  <si>
+    <t>Style hollandais, chaussette claquette</t>
+  </si>
+  <si>
+    <t>Babooshka, babooshka, babooshka ja, ja</t>
+  </si>
+  <si>
+    <t>Des contre façons efficaces</t>
+  </si>
+  <si>
+    <t>Dixit the Italian Stallion</t>
+  </si>
+  <si>
+    <t>Aussi rapide que l'original</t>
+  </si>
+  <si>
+    <t>Je vous remettrais bien la petite sœur?</t>
+  </si>
+  <si>
+    <t>Très utile pour les nœuds de huit</t>
+  </si>
+  <si>
+    <t>Alain sheba, un gros nul</t>
+  </si>
+  <si>
+    <t>Boisson chaude de charlie Sheen</t>
+  </si>
+  <si>
+    <t>Recette mythique des mère grand</t>
+  </si>
+  <si>
+    <t>Très prisé en Russie actuellement</t>
+  </si>
+  <si>
+    <t>Tu bois tu meurts</t>
+  </si>
+  <si>
+    <t>Repas favoris de Staline</t>
+  </si>
+  <si>
+    <t>Sauce favorite de Lenine</t>
+  </si>
+  <si>
+    <t>Remet les idées fixes</t>
+  </si>
+  <si>
+    <t>C'est comme le jagermeister mais en plus mauvais</t>
+  </si>
+  <si>
+    <t>Sur les boulettes ?</t>
+  </si>
+  <si>
+    <t>Avec ou sans frites ?</t>
+  </si>
+  <si>
+    <t>Pour les Lecter vegan</t>
+  </si>
+  <si>
+    <t>Très populaire chez les albinos du RN</t>
+  </si>
+  <si>
+    <t>Le Ken lubrique</t>
+  </si>
+  <si>
+    <t>A ne surtout pas fumer</t>
+  </si>
+  <si>
+    <t>L'algorithme de toto</t>
+  </si>
+  <si>
+    <t>Tu ne trouves pas ça assez catholique ?</t>
+  </si>
+  <si>
+    <t>Bienvenue le marchand de sable</t>
+  </si>
+  <si>
+    <t>Accumulations très denses de matière partiellement digérée ou non digérée pouvant se coincer dans l'estomac ou les intestins</t>
+  </si>
+  <si>
+    <t>Lorsque vous êtes aveugles, bien viser les yeux</t>
+  </si>
+  <si>
+    <t>Très bon pain aux raisins de Moselle</t>
+  </si>
+  <si>
+    <t>Impécable pour l'hyper tension</t>
+  </si>
+  <si>
+    <t>Pour être satélisé</t>
+  </si>
+  <si>
+    <t>La contre façons</t>
+  </si>
+  <si>
+    <t>A consommer dans un Saddam Usain bol</t>
+  </si>
+  <si>
+    <t>Le seul loup avec un frain à main</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,13 +1295,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="7" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -727,15 +1397,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -746,11 +1429,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -758,19 +1441,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,18 +1803,18 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="C5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -3153,6 +3853,3229 @@
   <mergeCells count="2">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="F5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA78CF4-81A8-4244-8FA3-31B7663C8FB0}">
+  <dimension ref="A1:T90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="9"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K34" s="9"/>
+      <c r="L34" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K35" s="9"/>
+      <c r="L35" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K36" s="9"/>
+      <c r="L36" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>36</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>37</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="L39" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>38</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>42</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>43</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>44</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>45</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>46</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>47</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>48</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>49</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>50</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>51</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>52</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>53</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K55" s="9"/>
+      <c r="L55" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>54</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K56" s="9"/>
+      <c r="L56" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>55</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K57" s="9"/>
+      <c r="L57" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="5"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>56</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K58" s="9"/>
+      <c r="L58" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="5"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>57</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K59" s="9"/>
+      <c r="L59" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="5"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>58</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>59</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K61" s="9"/>
+      <c r="L61" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>60</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K62" s="9"/>
+      <c r="L62" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="5"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>61</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K63" s="9"/>
+      <c r="L63" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="5"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>62</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K64" s="9"/>
+      <c r="L64" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>63</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K65" s="9"/>
+      <c r="L65" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>64</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K66" s="9"/>
+      <c r="L66" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>65</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K67" s="9"/>
+      <c r="L67" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>66</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K68" s="9"/>
+      <c r="L68" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="5"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>67</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K69" s="9"/>
+      <c r="L69" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>68</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K70" s="9"/>
+      <c r="L70" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="5"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>69</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K71" s="9"/>
+      <c r="L71" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="5"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>70</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K72" s="9"/>
+      <c r="L72" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="5"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>71</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K73" s="9"/>
+      <c r="L73" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="5"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>72</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K74" s="9"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="5"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>73</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K75" s="9"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="5"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>74</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K76" s="9"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="5"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>75</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K77" s="9"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="5"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>76</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K78" s="9"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="5"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>77</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K79" s="9"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="5"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>78</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K80" s="9"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="5"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>79</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K81" s="9"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="5"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>80</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K82" s="9"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="5"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>81</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K83" s="9"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="5"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>82</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K84" s="9"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="5"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>83</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K85" s="9"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="5"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>84</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K86" s="9"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="5"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>85</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K87" s="9"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="5"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>86</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K88" s="9"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="5"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>87</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K89" s="9"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="5"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>88</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K90" s="9"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="359">
+    <mergeCell ref="L87:S87"/>
+    <mergeCell ref="L88:S88"/>
+    <mergeCell ref="L89:S89"/>
+    <mergeCell ref="L90:S90"/>
+    <mergeCell ref="L3:S3"/>
+    <mergeCell ref="L4:S4"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L7:S7"/>
+    <mergeCell ref="L8:S8"/>
+    <mergeCell ref="L81:S81"/>
+    <mergeCell ref="L82:S82"/>
+    <mergeCell ref="L83:S83"/>
+    <mergeCell ref="L84:S84"/>
+    <mergeCell ref="L85:S85"/>
+    <mergeCell ref="L86:S86"/>
+    <mergeCell ref="L75:S75"/>
+    <mergeCell ref="L76:S76"/>
+    <mergeCell ref="L77:S77"/>
+    <mergeCell ref="L78:S78"/>
+    <mergeCell ref="L79:S79"/>
+    <mergeCell ref="L80:S80"/>
+    <mergeCell ref="L69:S69"/>
+    <mergeCell ref="L70:S70"/>
+    <mergeCell ref="L71:S71"/>
+    <mergeCell ref="L72:S72"/>
+    <mergeCell ref="L73:S73"/>
+    <mergeCell ref="L74:S74"/>
+    <mergeCell ref="L63:S63"/>
+    <mergeCell ref="L64:S64"/>
+    <mergeCell ref="L65:S65"/>
+    <mergeCell ref="L66:S66"/>
+    <mergeCell ref="L67:S67"/>
+    <mergeCell ref="L68:S68"/>
+    <mergeCell ref="L57:S57"/>
+    <mergeCell ref="L58:S58"/>
+    <mergeCell ref="L59:S59"/>
+    <mergeCell ref="L60:S60"/>
+    <mergeCell ref="L61:S61"/>
+    <mergeCell ref="L62:S62"/>
+    <mergeCell ref="L51:S51"/>
+    <mergeCell ref="L52:S52"/>
+    <mergeCell ref="L53:S53"/>
+    <mergeCell ref="L54:S54"/>
+    <mergeCell ref="L55:S55"/>
+    <mergeCell ref="L56:S56"/>
+    <mergeCell ref="L45:S45"/>
+    <mergeCell ref="L46:S46"/>
+    <mergeCell ref="L47:S47"/>
+    <mergeCell ref="L48:S48"/>
+    <mergeCell ref="L49:S49"/>
+    <mergeCell ref="L50:S50"/>
+    <mergeCell ref="L39:S39"/>
+    <mergeCell ref="L40:S40"/>
+    <mergeCell ref="L41:S41"/>
+    <mergeCell ref="L42:S42"/>
+    <mergeCell ref="L43:S43"/>
+    <mergeCell ref="L44:S44"/>
+    <mergeCell ref="L33:S33"/>
+    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="L35:S35"/>
+    <mergeCell ref="L36:S36"/>
+    <mergeCell ref="L37:S37"/>
+    <mergeCell ref="L38:S38"/>
+    <mergeCell ref="L27:S27"/>
+    <mergeCell ref="L28:S28"/>
+    <mergeCell ref="L29:S29"/>
+    <mergeCell ref="L30:S30"/>
+    <mergeCell ref="L31:S31"/>
+    <mergeCell ref="L32:S32"/>
+    <mergeCell ref="L21:S21"/>
+    <mergeCell ref="L22:S22"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="L24:S24"/>
+    <mergeCell ref="L25:S25"/>
+    <mergeCell ref="L26:S26"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="L17:S17"/>
+    <mergeCell ref="L18:S18"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="L20:S20"/>
+    <mergeCell ref="L9:S9"/>
+    <mergeCell ref="L10:S10"/>
+    <mergeCell ref="L11:S11"/>
+    <mergeCell ref="L12:S12"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3172,33 +7095,33 @@
       <c r="A1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
       <c r="V1" s="9"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
@@ -3214,16 +7137,16 @@
       <c r="I2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
       <c r="T2" s="9"/>
       <c r="U2" s="8" t="s">
         <v>2</v>
@@ -3231,634 +7154,628 @@
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="7"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="12"/>
       <c r="U3" s="8">
         <v>1</v>
       </c>
       <c r="V3" s="9"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="7"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="12"/>
       <c r="U4" s="8">
         <v>1</v>
       </c>
       <c r="V4" s="9"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="7"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="12"/>
       <c r="U5" s="8">
         <v>1</v>
       </c>
       <c r="V5" s="9"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="7"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="12"/>
       <c r="U6" s="8">
         <v>1</v>
       </c>
       <c r="V6" s="9"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="7"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="12"/>
       <c r="U7" s="8">
         <v>1</v>
       </c>
       <c r="V7" s="9"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="7"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="12"/>
       <c r="U8" s="8">
         <v>1</v>
       </c>
       <c r="V8" s="9"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="7"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="12"/>
       <c r="U9" s="8">
         <v>1</v>
       </c>
       <c r="V9" s="9"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="7"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="12"/>
       <c r="U10" s="8">
         <v>1</v>
       </c>
       <c r="V10" s="9"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="7"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="12"/>
       <c r="U11" s="8">
         <v>2</v>
       </c>
       <c r="V11" s="9"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="7"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="12"/>
       <c r="U12" s="8">
         <v>2</v>
       </c>
       <c r="V12" s="9"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="7"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="12"/>
       <c r="U13" s="8">
         <v>2</v>
       </c>
       <c r="V13" s="9"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="7"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="12"/>
       <c r="U14" s="8">
         <v>2</v>
       </c>
       <c r="V14" s="9"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <v>13</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="7"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="12"/>
       <c r="U15" s="8">
         <v>2</v>
       </c>
       <c r="V15" s="9"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="7"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="12"/>
       <c r="U16" s="8">
         <v>3</v>
       </c>
       <c r="V16" s="9"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="7"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="12"/>
       <c r="U17" s="8">
         <v>3</v>
       </c>
       <c r="V17" s="9"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <v>16</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="7"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="12"/>
       <c r="U18" s="8">
         <v>3</v>
       </c>
       <c r="V18" s="9"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="13">
         <v>17</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="7"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="12"/>
       <c r="U19" s="8">
         <v>4</v>
       </c>
       <c r="V19" s="9"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>18</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="7"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="12"/>
       <c r="U20" s="8">
         <v>4</v>
       </c>
       <c r="V20" s="9"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G25" s="14"/>
+      <c r="G25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I3:T3"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
-    <mergeCell ref="I6:T6"/>
-    <mergeCell ref="I7:T7"/>
-    <mergeCell ref="I8:T8"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:T9"/>
+    <mergeCell ref="I10:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="I11:T11"/>
+    <mergeCell ref="I12:T12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="I20:T20"/>
+    <mergeCell ref="I14:T14"/>
+    <mergeCell ref="I15:T15"/>
+    <mergeCell ref="I16:T16"/>
+    <mergeCell ref="I17:T17"/>
+    <mergeCell ref="I18:T18"/>
+    <mergeCell ref="I19:T19"/>
+    <mergeCell ref="I13:T13"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -3876,56 +7793,62 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="I20:T20"/>
-    <mergeCell ref="I14:T14"/>
-    <mergeCell ref="I15:T15"/>
-    <mergeCell ref="I16:T16"/>
-    <mergeCell ref="I17:T17"/>
-    <mergeCell ref="I18:T18"/>
-    <mergeCell ref="I19:T19"/>
-    <mergeCell ref="I13:T13"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="I11:T11"/>
-    <mergeCell ref="I12:T12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:T9"/>
-    <mergeCell ref="I10:T10"/>
-    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I3:T3"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
+    <mergeCell ref="I6:T6"/>
+    <mergeCell ref="I7:T7"/>
+    <mergeCell ref="I8:T8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3943,24 +7866,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -3974,16 +7897,16 @@
       <c r="E2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
       <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -3991,195 +7914,214 @@
         <v>1</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="12"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="7"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="7"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="7"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="7"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="7"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:P4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:P5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:P7"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:P10"/>
@@ -4189,25 +8131,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:P9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:P7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:P4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4227,17 +8150,17 @@
       <c r="A1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -4254,43 +8177,46 @@
         <v>1</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A2:D2"/>
@@ -4300,9 +8226,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4324,19 +8247,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -4346,550 +8269,550 @@
       <c r="D2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="15"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="5"/>
       <c r="K3" t="str">
         <f>A2&amp;", "&amp;B2&amp;", "&amp;D2&amp;", "&amp;H2</f>
         <v>id_lieu, nom_lieu, description_lieu, carte_lieu</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="15"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="5"/>
       <c r="J4" t="s">
         <v>129</v>
       </c>
       <c r="K4" t="str">
-        <f>(A3&amp;", '"&amp;B3&amp;"', '"&amp;D3)</f>
+        <f t="shared" ref="K4:K24" si="0">(A3&amp;", '"&amp;B3&amp;"', '"&amp;D3)</f>
         <v>1, 'Bad-town', 'Ville des orcs</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="15"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="5"/>
       <c r="J5" t="s">
         <v>129</v>
       </c>
       <c r="K5" t="str">
-        <f>(A4&amp;", '"&amp;B4&amp;"', '"&amp;D4)</f>
+        <f t="shared" si="0"/>
         <v>2, 'la reine', 'Lieu de combat n°1</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="15"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="5"/>
       <c r="J6" t="s">
         <v>129</v>
       </c>
       <c r="K6" t="str">
-        <f>(A5&amp;", '"&amp;B5&amp;"', '"&amp;D5)</f>
+        <f t="shared" si="0"/>
         <v>3, 'la bête', 'Centre de pari sur les combats</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="15"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="5"/>
       <c r="J7" t="s">
         <v>129</v>
       </c>
       <c r="K7" t="str">
-        <f>(A6&amp;", '"&amp;B6&amp;"', '"&amp;D6)</f>
+        <f t="shared" si="0"/>
         <v>4, 'scissor palace', 'Un casino</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="15"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="5"/>
       <c r="J8" t="s">
         <v>129</v>
       </c>
       <c r="K8" t="str">
-        <f>(A7&amp;", '"&amp;B7&amp;"', '"&amp;D7)</f>
+        <f t="shared" si="0"/>
         <v>5, 'lennybar', 'La taverne, idéal pour s''amuser</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="15"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="5"/>
       <c r="J9" t="s">
         <v>129</v>
       </c>
       <c r="K9" t="str">
-        <f>(A8&amp;", '"&amp;B8&amp;"', '"&amp;D8)</f>
+        <f t="shared" si="0"/>
         <v>6, 'Profit-city', 'Ville des humains</v>
       </c>
-      <c r="P9" s="16" t="s">
+      <c r="P9" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="15"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="5"/>
       <c r="J10" t="s">
         <v>129</v>
       </c>
       <c r="K10" t="str">
-        <f>(A9&amp;", '"&amp;B9&amp;"', '"&amp;D9)</f>
+        <f t="shared" si="0"/>
         <v>7, 'black market', 'Le marché : pour acheter, vendre et échanger</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="15"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="5"/>
       <c r="J11" t="s">
         <v>129</v>
       </c>
       <c r="K11" t="str">
-        <f>(A10&amp;", '"&amp;B10&amp;"', '"&amp;D10)</f>
+        <f t="shared" si="0"/>
         <v>8, 'lehman sisters', 'La banque</v>
       </c>
-      <c r="P11" s="16" t="s">
+      <c r="P11" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="15"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="5"/>
       <c r="J12" t="s">
         <v>129</v>
       </c>
       <c r="K12" t="str">
-        <f>(A11&amp;", '"&amp;B11&amp;"', '"&amp;D11)</f>
+        <f t="shared" si="0"/>
         <v>9, 'place-2-B', 'La place centrale de la ville</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="P12" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="15"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="5"/>
       <c r="J13" t="s">
         <v>129</v>
       </c>
       <c r="K13" t="str">
-        <f>(A12&amp;", '"&amp;B12&amp;"', '"&amp;D12)</f>
+        <f t="shared" si="0"/>
         <v>10, 'treump shop', 'Magasin d''armures</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="P13" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="15"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="5"/>
       <c r="J14" t="s">
         <v>129</v>
       </c>
       <c r="K14" t="str">
-        <f>(A13&amp;", '"&amp;B13&amp;"', '"&amp;D13)</f>
+        <f t="shared" si="0"/>
         <v>11, 'Nainportnawak', 'Ville des nains</v>
       </c>
-      <c r="P14" s="16" t="s">
+      <c r="P14" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="15"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="5"/>
       <c r="J15" t="s">
         <v>129</v>
       </c>
       <c r="K15" t="str">
-        <f>(A14&amp;", '"&amp;B14&amp;"', '"&amp;D14)</f>
+        <f t="shared" si="0"/>
         <v>12, 'maxilase', 'Magasin de potions</v>
       </c>
-      <c r="P15" s="16" t="s">
+      <c r="P15" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="15"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="5"/>
       <c r="J16" t="s">
         <v>129</v>
       </c>
       <c r="K16" t="str">
-        <f>(A15&amp;", '"&amp;B15&amp;"', '"&amp;D15)</f>
+        <f t="shared" si="0"/>
         <v>13, 'flunchbar', 'La taverne des nains, l''alccol coule à flot !</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="P16" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="15"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="5"/>
       <c r="J17" t="s">
         <v>129</v>
       </c>
       <c r="K17" t="str">
-        <f>(A16&amp;", '"&amp;B16&amp;"', '"&amp;D16)</f>
+        <f t="shared" si="0"/>
         <v>14, 'park in son', 'Joli parc pour ce détendre</v>
       </c>
-      <c r="P17" s="16" t="s">
+      <c r="P17" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="15"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="5"/>
       <c r="J18" t="s">
         <v>129</v>
       </c>
       <c r="K18" t="str">
-        <f>(A17&amp;", '"&amp;B17&amp;"', '"&amp;D17)</f>
+        <f t="shared" si="0"/>
         <v>15, 'in &amp; out', 'Restaurant de spécialités locales</v>
       </c>
-      <c r="P18" s="16" t="s">
+      <c r="P18" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="15"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="5"/>
       <c r="J19" t="s">
         <v>129</v>
       </c>
       <c r="K19" t="str">
-        <f>(A18&amp;", '"&amp;B18&amp;"', '"&amp;D18)</f>
+        <f t="shared" si="0"/>
         <v>16, 'Elf village', 'Ville des elfes</v>
       </c>
-      <c r="P19" s="16" t="s">
+      <c r="P19" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="15"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="5"/>
       <c r="J20" t="s">
         <v>129</v>
       </c>
       <c r="K20" t="str">
-        <f>(A19&amp;", '"&amp;B19&amp;"', '"&amp;D19)</f>
+        <f t="shared" si="0"/>
         <v>17, 'msncircus', 'Place pour discuter et faire des rencontres</v>
       </c>
-      <c r="P20" s="16" t="s">
+      <c r="P20" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="15"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="5"/>
       <c r="J21" t="s">
         <v>129</v>
       </c>
       <c r="K21" t="str">
-        <f>(A20&amp;", '"&amp;B20&amp;"', '"&amp;D20)</f>
+        <f t="shared" si="0"/>
         <v>18, 'pirate search', 'Zone pour aller chercher de nouvelles quêtes</v>
       </c>
-      <c r="P21" s="16" t="s">
+      <c r="P21" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="15"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="5"/>
       <c r="J22" t="s">
         <v>129</v>
       </c>
       <c r="K22" t="str">
-        <f>(A21&amp;", '"&amp;B21&amp;"', '"&amp;D21)</f>
+        <f t="shared" si="0"/>
         <v>19, 'daddy awards', 'Centre de récompences pour les quêtes</v>
       </c>
-      <c r="P22" s="16" t="s">
+      <c r="P22" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="15"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="5"/>
       <c r="J23" t="s">
         <v>129</v>
       </c>
       <c r="K23" t="str">
-        <f>(A22&amp;", '"&amp;B22&amp;"', '"&amp;D22)</f>
+        <f t="shared" si="0"/>
         <v>20, 'potatoe valley', 'Potager de légumes</v>
       </c>
-      <c r="P23" s="16" t="s">
+      <c r="P23" s="6" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4898,30 +8821,27 @@
         <v>129</v>
       </c>
       <c r="K24" t="str">
-        <f>(A23&amp;", '"&amp;B23&amp;"', '"&amp;D23)</f>
+        <f t="shared" si="0"/>
         <v>21, 'La croisée', 'Là où tout les chemins se croisent</v>
       </c>
-      <c r="P24" s="16" t="s">
+      <c r="P24" s="6" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
@@ -4938,20 +8858,23 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4961,8 +8884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577DA391-A061-463E-9151-E75A84D4AE68}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4974,395 +8897,407 @@
       <c r="A1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="11" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="P2" s="13"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="11" t="b">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="P3" s="13"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="11" t="b">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="P4" s="13"/>
+      <c r="P4" s="14"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="11" t="b">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="P5" s="13"/>
+      <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="11" t="b">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="13"/>
+      <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="11" t="b">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="P7" s="13"/>
+      <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="11" t="b">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="P8" s="13"/>
+      <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="11" t="b">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="P9" s="13"/>
+      <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="11" t="b">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="P10" s="13"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="11" t="b">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="P11" s="13"/>
+      <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="11" t="b">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="P12" s="13"/>
+      <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="11" t="b">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="P13" s="13"/>
+      <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="11" t="b">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="P14" s="13"/>
+      <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="11" t="b">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="P15" s="13"/>
+      <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="11" t="b">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="P16" s="13"/>
+      <c r="P16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D2:N2"/>
+    <mergeCell ref="D3:N3"/>
+    <mergeCell ref="D4:N4"/>
+    <mergeCell ref="D5:N5"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="D13:N13"/>
     <mergeCell ref="D14:N14"/>
     <mergeCell ref="D15:N15"/>
@@ -5379,28 +9314,1372 @@
     <mergeCell ref="D10:N10"/>
     <mergeCell ref="D11:N11"/>
     <mergeCell ref="D12:N12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D2:N2"/>
-    <mergeCell ref="D3:N3"/>
-    <mergeCell ref="D4:N4"/>
-    <mergeCell ref="D5:N5"/>
-    <mergeCell ref="D6:N6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2519EBC5-E3A7-42C9-A500-76A022032C2E}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C131A3-BBC4-4974-93ED-2E91970233D8}">
+  <dimension ref="A1:V43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="V2" s="7"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="V3" s="18"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>2</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="V6" s="18"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="V9" s="18"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>4</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="V12" s="18"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <f>A2&amp;", "&amp;B2&amp;", "&amp;D2&amp;", "&amp;U2</f>
+        <v>id_race, nom_race, description_race, jouable_race</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="str">
+        <f>A3&amp;", '"&amp;B3&amp;"', '"&amp;D3&amp;"', "&amp;U3</f>
+        <v>1, 'Humains', 'Ambitieux, parfois héroïques, mais toujours confiants, les humains sont capables de travailler ensemble pour atteindre des objectifs communs, ce qui fait d’eux une puissance à ne pas négliger. Ils ont une espérance de vie réduite par rapport aux autres races, mais leur énergie sans limites et leurs passions leur permettent d’accomplir beaucoup de choses malgré leur brève existence.', TRUE</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="str">
+        <f>A6&amp;", '"&amp;B6&amp;"', '"&amp;D6&amp;"', "&amp;U6</f>
+        <v>2, 'Nains', 'On pense souvent que ces défenseurs des villes montagneuses petits et râblés sont sévères et dépourvus de tout sens de l’humour. Ils sont connus pour être des grand industriels dont les produit sont toujours d'une grande qualité et pour avoir une affinité particulière avec les richesses cachées dans les entrailles de la terre. Les nains ont aussi tendance à s’isoler et à se replier sur leurs traditions, au point de sombrer parfois dans la xénophobie.', TRUE</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="str">
+        <f>A9&amp;", '"&amp;B9&amp;"', '"&amp;D9&amp;"', "&amp;U9</f>
+        <v>3, 'Elfes', 'Grands, nobles et souvent hautains, les elfes à la longue espérance de vie sont les maîtres subtils de la nature. Ils excellent dans les arts magiques et utilisent souvent leur lien inné avec la nature pour inventer de nouveaux sorts et fabriquer de merveilleux objets qui, comme leurs créateurs, semblent presque hors d’atteinte des ravages du temps. Les elfes forment une race secrète et souvent introvertie, qui donne parfois l’impression d’être imperméable aux suppliques d’autrui.', FALSE</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="str">
+        <f>A12&amp;", '"&amp;B12&amp;"', '"&amp;D12&amp;"', "&amp;U12</f>
+        <v>4, 'Orques', 'Sauvages, brutaux et résistants, les orques sont souvent le fléau des lointaines étendues naturelles et des grottes profondes. Beaucoup deviennent de redoutables mercenaires, du fait de leur stature musculeuse et de leur tendance à entrer dans des rages sanglantes. Les quelques rares qui parviennent à contrôler leur soif de sang font d’excellents aventuriers.', TRUE</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+    </row>
+    <row r="36" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="str">
+        <f>A15&amp;", '"&amp;B15&amp;"', '"&amp;D15&amp;"', "&amp;U15</f>
+        <v>5, 'Rat', '', FALSE</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+    </row>
+    <row r="40" spans="2:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="17" t="str">
+        <f>A16&amp;", '"&amp;B16&amp;"', '"&amp;D16&amp;"', "&amp;U16</f>
+        <v>6, 'Chauve souris', '', FALSE</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="B40:V41"/>
+    <mergeCell ref="B32:V35"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="B20:V23"/>
+    <mergeCell ref="B24:V27"/>
+    <mergeCell ref="B28:V31"/>
+    <mergeCell ref="B36:V39"/>
+    <mergeCell ref="D2:T2"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U3:V5"/>
+    <mergeCell ref="U6:V8"/>
+    <mergeCell ref="U9:V11"/>
+    <mergeCell ref="U12:V14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:T16"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="D12:T14"/>
+    <mergeCell ref="D15:T15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="D6:T8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="D9:T11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D3:T5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D76AC6-E2F4-49B7-B143-59DA31191EF4}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/conf/Table_Aptitudes_Type_aptitudes_Caracteristique_JDR_2R.xlsx
+++ b/conf/Table_Aptitudes_Type_aptitudes_Caracteristique_JDR_2R.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Projets\jdr2d\conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\projets_afpa\jdr2d\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0246EC68-F3B3-4C1E-B576-5125D70317FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83FC07A-3FCC-4B36-877D-B4FE69C5B127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{34F6F82D-5E26-4D0F-A51F-90A17C34A5CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="15" xr2:uid="{34F6F82D-5E26-4D0F-A51F-90A17C34A5CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="571">
   <si>
     <t>type_aptitude</t>
   </si>
@@ -1888,7 +1888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1909,42 +1909,26 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1975,6 +1959,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1990,24 +1983,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2341,18 +2318,18 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="F5" s="24" t="s">
+      <c r="C5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -4398,10 +4375,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB20B1C-1C73-41AA-981B-F43F17B2B244}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4411,41 +4388,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="14" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="14" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="1" t="s">
         <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>A2&amp;", "&amp;B2</f>
+        <v>code_role_interaction, nom_role_interaction</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>A3&amp;"', '"&amp;B3</f>
+        <v>Q', 'questeur</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" ref="A9:A10" si="0">A4&amp;"', '"&amp;B4</f>
+        <v>D', 'donneur</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>R', 'rétributeur</v>
       </c>
     </row>
   </sheetData>
@@ -4458,10 +4459,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891BF83D-4838-4BE3-A41C-DAB83A9244DA}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4474,94 +4475,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="13" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="11" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="13" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="11" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="13" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="11" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="11" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="13" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="11" t="s">
         <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2</f>
+        <v>id_etat_personnage, nom_etat, effet_etat, pourcentage_etat_personnage, description_etat_personnage</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3</f>
+        <v>1', 'empoisonnement', '', '', 'incidence sur PV</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" ref="A12:A17" si="0">A4&amp;"', '"&amp;B4&amp;"', '"&amp;C4&amp;"', '"&amp;D4&amp;"', '"&amp;E4</f>
+        <v>2', 'Endormi', '', '', 'empêche d’agir</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>3', 'aveuglé', '', '', 'baisse la précision</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>4', 'paralisé', '', '', 'empêche de se deplacer</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>5', 'bénie', '', '', 'plus fort, plus résistant</v>
       </c>
     </row>
   </sheetData>
@@ -4574,10 +4611,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA78CF4-81A8-4244-8FA3-31B7663C8FB0}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4591,16 +4628,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -6355,22 +6392,562 @@
       <c r="H90" s="5"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="9">
+      <c r="A91" s="5">
         <v>89</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="9" t="s">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="F91" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="G91" s="18"/>
-      <c r="H91" s="20"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B94" t="str">
+        <f>A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;", "&amp;F2&amp;", "&amp;G2</f>
+        <v>id_objet, nom_objet, statistique_objet, pourcentage_effet_objet, equipe_objet, ouvert_objet, description_objet</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B95" t="str">
+        <f>A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3</f>
+        <v>1', 'fusil Lorrain', '', '', 'TRUE', 'NULL', 'Fusil légendaire de Lorraine, capable d'envoyer des fuseaux a 50 km/h</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B96" t="str">
+        <f t="shared" ref="B96:B159" si="0">A4&amp;"', '"&amp;B4&amp;"', '"&amp;C4&amp;"', '"&amp;D4&amp;"', '"&amp;E4&amp;"', '"&amp;F4&amp;"', '"&amp;G4</f>
+        <v>2', 'paprik'arme', '', '', 'TRUE', 'NULL', 'Le piment le plus fort de tous les héros</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="str">
+        <f t="shared" si="0"/>
+        <v>3', 'lance saucisse', '', '', 'TRUE', 'NULL', 'De son vrai nom große würst</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="str">
+        <f t="shared" si="0"/>
+        <v>4', 'Patator', '', '', 'TRUE', 'NULL', 'Le traditionnel lance patate Russe utiliser par Poutine en Ukraine</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="str">
+        <f t="shared" si="0"/>
+        <v>5', 'arbalais', '', '', 'TRUE', 'NULL', 'Monsieur Potter, merci de ramener le balais</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="str">
+        <f t="shared" si="0"/>
+        <v>6', 'la boule de pétoncle', '', '', 'TRUE', 'NULL', 'Célébre boule du comédon Cousteau</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="str">
+        <f t="shared" si="0"/>
+        <v>7', 'pestolet', '', '', 'TRUE', 'NULL', 'Ajouter du basilic, de l'ail et des François pignon et du parmesan on obtient cette arme légendaire</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="str">
+        <f t="shared" si="0"/>
+        <v>8', 'couperet bretzel', '', '', 'TRUE', 'NULL', 'Apparut en Alsace pendant la période des spaetzle du cervelas et de la choucroute en l'an 69</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" t="str">
+        <f t="shared" si="0"/>
+        <v>9', 'rôtisseur', '', '', 'TRUE', 'NULL', 'Célèbre arme du colonel Sander</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" t="str">
+        <f t="shared" si="0"/>
+        <v>10', 'la pelle forte', '', '', 'TRUE', 'NULL', 'Merci Berny pour votre invention autoroutiere</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" t="str">
+        <f t="shared" si="0"/>
+        <v>11', 'batte ail', '', '', 'TRUE', 'NULL', 'Arme favorite de Blade</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" t="str">
+        <f t="shared" si="0"/>
+        <v>12', 'la fausse croix', '', '', 'TRUE', 'NULL', 'Arme légendaire de nazareth</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" t="str">
+        <f t="shared" si="0"/>
+        <v>13', 'poing chope', '', '', 'TRUE', 'NULL', 'Mélange entre chopine et poing ricain</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" t="str">
+        <f t="shared" si="0"/>
+        <v>14', 'dague Ober', '', '', 'TRUE', 'NULL', 'Mais qui l'a mise à l'envers ?</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="str">
+        <f t="shared" si="0"/>
+        <v>15', 'couilletau', '', '', 'TRUE', 'NULL', 'Crustacé qui sent la marais</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="str">
+        <f t="shared" si="0"/>
+        <v>16', 'dardvador', '', '', 'TRUE', 'NULL', 'Aussi rouge que le sabre</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" t="str">
+        <f t="shared" si="0"/>
+        <v>17', 'porc table', '', '', 'TRUE', 'NULL', 'Mi porc, mi ours, mi homme,,, Je m'égare il est seulement mi table</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" t="str">
+        <f t="shared" si="0"/>
+        <v>18', 'jason tatane', '', '', 'TRUE', 'NULL', 'Pour les puristes de la bagarre</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" t="str">
+        <f t="shared" si="0"/>
+        <v>19', 'bonnet m', '', '', 'TRUE', 'NULL', 'Le sugar daddy cool des chapias</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" t="str">
+        <f>A22&amp;"', '"&amp;B22&amp;"', '"&amp;C22&amp;"', '"&amp;D22&amp;"', '"&amp;E22&amp;"', '"&amp;F22&amp;"', '"&amp;G22</f>
+        <v>20', 'casquette a pointe', '', '', 'TRUE', 'NULL', 'Célèbre casquette germanique, utilisée dans les concours de lancer de pomme</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" t="str">
+        <f t="shared" si="0"/>
+        <v>21', 'k-lotte', '', '', 'TRUE', 'NULL', 'Arme célèbre de la confrérie Lopez, 100% cuivre</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">22', 'kippab', '', '', 'TRUE', 'NULL', 'Salade tomate oignon du chapeau </v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" t="str">
+        <f t="shared" si="0"/>
+        <v>23', 'baie raie', '', '', 'TRUE', 'NULL', 'Le fruit qui résume bien la situation " l'abricôt"</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" t="str">
+        <f t="shared" si="0"/>
+        <v>24', 'plas'thon', '', '', 'TRUE', 'NULL', 'Construite en boite de petit navire</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" t="str">
+        <f t="shared" si="0"/>
+        <v>25', 'plas'tèque', '', '', 'TRUE', 'NULL', 'Manger 5 fruits et légumes par jours</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" t="str">
+        <f t="shared" si="0"/>
+        <v>26', 'côte de beauf', '', '', 'TRUE', 'NULL', 'Parfait pour les soirées tuning</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" t="str">
+        <f t="shared" si="0"/>
+        <v>27', 'l'ainée', '', '', 'TRUE', 'NULL', 'Allez voir sur wikipédia</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" t="str">
+        <f t="shared" si="0"/>
+        <v>28', 'pull ovaire', '', '', 'TRUE', 'NULL', 'Bien mieux que le col roulé</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" t="str">
+        <f t="shared" si="0"/>
+        <v>29', 'gants stères', '', '', 'TRUE', 'NULL', 'Parfait pour ramasser le bois</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" t="str">
+        <f t="shared" si="0"/>
+        <v>30', 'mie Teigne', '', '', 'TRUE', 'NULL', 'Boulanger tétu de renommé</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" t="str">
+        <f t="shared" si="0"/>
+        <v>31', 'bollet rouge', '', '', 'TRUE', 'NULL', 'Célébre coiffe du comédon Cousteau</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" t="str">
+        <f t="shared" si="0"/>
+        <v>32', 'croque mie teigne', '', '', 'TRUE', 'NULL', 'Croque monsieur du boulanger</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" t="str">
+        <f t="shared" si="0"/>
+        <v>33', 'gant de toilette', '', '', 'TRUE', 'NULL', 'Progéniture de Servietski</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" t="str">
+        <f t="shared" si="0"/>
+        <v>34', 'bretelle', '', '', 'TRUE', 'NULL', 'Et porte jartelle</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" t="str">
+        <f t="shared" si="0"/>
+        <v>35', 'bas thon', '', '', 'TRUE', 'NULL', 'Le leggings du comédon Cousteau</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" t="str">
+        <f t="shared" si="0"/>
+        <v>36', 'benne laden', '', '', 'TRUE', 'NULL', 'Enfilez vos deux jambes dedans</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" t="str">
+        <f t="shared" si="0"/>
+        <v>37', 'beer muda', '', '', 'TRUE', 'NULL', 'Mi jaune mi blanc</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" t="str">
+        <f>A40&amp;"', '"&amp;B40&amp;"', '"&amp;C40&amp;"', '"&amp;D40&amp;"', '"&amp;E40&amp;"', '"&amp;F40&amp;"', '"&amp;G40</f>
+        <v>38', 'fûtal', '', '', 'TRUE', 'NULL', 'Parfait pour protéger votre trou du fût</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" t="str">
+        <f t="shared" si="0"/>
+        <v>39', 'crocs', '', '', 'TRUE', 'NULL', 'Style hollandais, chaussette claquette</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" t="str">
+        <f t="shared" si="0"/>
+        <v>40', 'bas bouche', '', '', 'TRUE', 'NULL', 'Babooshka, babooshka, babooshka ja, ja</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" t="str">
+        <f t="shared" si="0"/>
+        <v>41', 'adaddas', '', '', 'TRUE', 'NULL', 'Des contre façons efficaces</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" t="str">
+        <f t="shared" si="0"/>
+        <v>42', 'les talons', '', '', 'TRUE', 'NULL', 'Dixit the Italian Stallion</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" t="str">
+        <f t="shared" si="0"/>
+        <v>43', 'musse tongue', '', '', 'TRUE', 'NULL', 'Aussi rapide que l'original</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" t="str">
+        <f t="shared" si="0"/>
+        <v>44', 'pinte', '', '', 'FALSE', 'NULL', 'Je vous remettrais bien la petite sœur?</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" t="str">
+        <f t="shared" si="0"/>
+        <v>45', 'tord boyaux', '', '', 'FALSE', 'NULL', 'Très utile pour les nœuds de huit</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" t="str">
+        <f t="shared" si="0"/>
+        <v>46', 'Sheba', '', '', 'FALSE', 'NULL', 'Alain sheba, un gros nul</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" t="str">
+        <f t="shared" si="0"/>
+        <v>47', 'shot', '', '', 'FALSE', 'NULL', 'Boisson chaude de charlie Sheen</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" t="str">
+        <f t="shared" si="0"/>
+        <v>48', 'grogs', '', '', 'FALSE', 'NULL', 'Recette mythique des mère grand</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" t="str">
+        <f t="shared" si="0"/>
+        <v>49', 'ukranium', '', '', 'FALSE', 'NULL', 'Très prisé en Russie actuellement</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" t="str">
+        <f t="shared" si="0"/>
+        <v>50', 'muscat death', '', '', 'FALSE', 'NULL', 'Tu bois tu meurts</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" t="str">
+        <f t="shared" si="0"/>
+        <v>51', 'houmous tache', '', '', 'FALSE', 'NULL', 'Repas favoris de Staline</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" t="str">
+        <f t="shared" si="0"/>
+        <v>52', 'tsar tziki', '', '', 'FALSE', 'NULL', 'Sauce favorite de Lenine</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" t="str">
+        <f t="shared" si="0"/>
+        <v>53', 'potion magique', '', '', 'FALSE', 'NULL', 'Remet les idées fixes</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" t="str">
+        <f t="shared" si="0"/>
+        <v>54', 'asperule', '', '', 'FALSE', 'NULL', 'C'est comme le jagermeister mais en plus mauvais</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" t="str">
+        <f t="shared" si="0"/>
+        <v>55', 'sauce dallas', '', '', 'FALSE', 'NULL', 'Sur les boulettes ?</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" t="str">
+        <f t="shared" si="0"/>
+        <v>56', 'sauce biggy', '', '', 'FALSE', 'NULL', 'Avec ou sans frites ?</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" t="str">
+        <f>A59&amp;"', '"&amp;B59&amp;"', '"&amp;C59&amp;"', '"&amp;D59&amp;"', '"&amp;E59&amp;"', '"&amp;F59&amp;"', '"&amp;G59</f>
+        <v>57', 'sauce hannibal', '', '', 'FALSE', 'NULL', 'Pour les Lecter vegan</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" t="str">
+        <f t="shared" si="0"/>
+        <v>58', 'sauce blanche', '', '', 'FALSE', 'NULL', 'Très populaire chez les albinos du RN</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" t="str">
+        <f t="shared" si="0"/>
+        <v>59', 'barbie turique', '', '', 'FALSE', 'NULL', 'Le Ken lubrique</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" t="str">
+        <f>A62&amp;"', '"&amp;B62&amp;"', '"&amp;C62&amp;"', '"&amp;D62&amp;"', '"&amp;E62&amp;"', '"&amp;F62&amp;"', '"&amp;G62</f>
+        <v>60', 'amnesia', '', '', 'FALSE', 'NULL', 'A ne surtout pas fumer</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" t="str">
+        <f>A63&amp;"', '"&amp;B63&amp;"', '"&amp;C63&amp;"', '"&amp;D63&amp;"', '"&amp;E63&amp;"', '"&amp;F63&amp;"', '"&amp;G63</f>
+        <v>61', 'algoflash', '', '', 'FALSE', 'NULL', 'L'algorithme de toto</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" t="str">
+        <f>A64&amp;"', '"&amp;B64&amp;"', '"&amp;C64&amp;"', '"&amp;D64&amp;"', '"&amp;E64&amp;"', '"&amp;F64&amp;"', '"&amp;G64</f>
+        <v>62', 'le sang du christ', '', '', 'FALSE', 'NULL', 'Tu ne trouves pas ça assez catholique ?</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" t="str">
+        <f>A65&amp;"', '"&amp;B65&amp;"', '"&amp;C65&amp;"', '"&amp;D65&amp;"', '"&amp;E65&amp;"', '"&amp;F65&amp;"', '"&amp;G65</f>
+        <v>63', 'valium', '', '', 'FALSE', 'NULL', 'Bienvenue le marchand de sable</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" t="str">
+        <f>A66&amp;"', '"&amp;B66&amp;"', '"&amp;C66&amp;"', '"&amp;D66&amp;"', '"&amp;E66&amp;"', '"&amp;F66&amp;"', '"&amp;G66</f>
+        <v>64', 'bezoard', '', '', 'FALSE', 'NULL', 'Accumulations très denses de matière partiellement digérée ou non digérée pouvant se coincer dans l'estomac ou les intestins</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" t="str">
+        <f>A67&amp;"', '"&amp;B67&amp;"', '"&amp;C67&amp;"', '"&amp;D67&amp;"', '"&amp;E67&amp;"', '"&amp;F67&amp;"', '"&amp;G67</f>
+        <v>65', 'collyre', '', '', 'FALSE', 'NULL', 'Lorsque vous êtes aveugles, bien viser les yeux</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" t="str">
+        <f>A68&amp;"', '"&amp;B68&amp;"', '"&amp;C68&amp;"', '"&amp;D68&amp;"', '"&amp;E68&amp;"', '"&amp;F68&amp;"', '"&amp;G68</f>
+        <v>66', 'schneck', '', '', 'FALSE', 'NULL', 'Très bon pain aux raisins de Moselle</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" t="str">
+        <f>A69&amp;"', '"&amp;B69&amp;"', '"&amp;C69&amp;"', '"&amp;D69&amp;"', '"&amp;E69&amp;"', '"&amp;F69&amp;"', '"&amp;G69</f>
+        <v>67', 'epinephrine', '', '', 'FALSE', 'NULL', 'Impécable pour l'hyper tension</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" t="str">
+        <f>A70&amp;"', '"&amp;B70&amp;"', '"&amp;C70&amp;"', '"&amp;D70&amp;"', '"&amp;E70&amp;"', '"&amp;F70&amp;"', '"&amp;G70</f>
+        <v>68', 'vega missile', '', '', 'FALSE', 'NULL', 'Pour être satélisé</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" t="str">
+        <f>A71&amp;"', '"&amp;B71&amp;"', '"&amp;C71&amp;"', '"&amp;D71&amp;"', '"&amp;E71&amp;"', '"&amp;F71&amp;"', '"&amp;G71</f>
+        <v>69', 'red boule', '', '', 'FALSE', 'NULL', 'La contre façons</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" t="str">
+        <f>A72&amp;"', '"&amp;B72&amp;"', '"&amp;C72&amp;"', '"&amp;D72&amp;"', '"&amp;E72&amp;"', '"&amp;F72&amp;"', '"&amp;G72</f>
+        <v>70', 'bipbip', '', '', 'FALSE', 'NULL', 'A consommer dans un Saddam Usain bol</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" t="str">
+        <f>A73&amp;"', '"&amp;B73&amp;"', '"&amp;C73&amp;"', '"&amp;D73&amp;"', '"&amp;E73&amp;"', '"&amp;F73&amp;"', '"&amp;G73</f>
+        <v>71', 'le coyotte', '', '', 'FALSE', 'NULL', 'Le seul loup avec un frain à main</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" t="str">
+        <f>A74&amp;"', '"&amp;B74&amp;"', '"&amp;C74&amp;"', '"&amp;D74&amp;"', '"&amp;E74&amp;"', '"&amp;F74&amp;"', '"&amp;G74</f>
+        <v>72', 'Boubourse', '', '', 'FALSE', 'FALSE', '</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" t="str">
+        <f>A75&amp;"', '"&amp;B75&amp;"', '"&amp;C75&amp;"', '"&amp;D75&amp;"', '"&amp;E75&amp;"', '"&amp;F75&amp;"', '"&amp;G75</f>
+        <v>73', 'houblon', '', '', 'FALSE', 'NULL', '</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" t="str">
+        <f>A76&amp;"', '"&amp;B76&amp;"', '"&amp;C76&amp;"', '"&amp;D76&amp;"', '"&amp;E76&amp;"', '"&amp;F76&amp;"', '"&amp;G76</f>
+        <v>74', 'fut', '', '', 'FALSE', 'NULL', '</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" t="str">
+        <f>A77&amp;"', '"&amp;B77&amp;"', '"&amp;C77&amp;"', '"&amp;D77&amp;"', '"&amp;E77&amp;"', '"&amp;F77&amp;"', '"&amp;G77</f>
+        <v>75', 'sachet', '', '', 'FALSE', 'NULL', '</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" t="str">
+        <f>A78&amp;"', '"&amp;B78&amp;"', '"&amp;C78&amp;"', '"&amp;D78&amp;"', '"&amp;E78&amp;"', '"&amp;F78&amp;"', '"&amp;G78</f>
+        <v>76', 'mur', '', '', 'NULL', 'NULL', '</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" t="str">
+        <f>A79&amp;"', '"&amp;B79&amp;"', '"&amp;C79&amp;"', '"&amp;D79&amp;"', '"&amp;E79&amp;"', '"&amp;F79&amp;"', '"&amp;G79</f>
+        <v>77', 'banc', '', '', 'NULL', 'NULL', '</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" t="str">
+        <f>A80&amp;"', '"&amp;B80&amp;"', '"&amp;C80&amp;"', '"&amp;D80&amp;"', '"&amp;E80&amp;"', '"&amp;F80&amp;"', '"&amp;G80</f>
+        <v>78', 'table', '', '', 'NULL', 'NULL', '</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" t="str">
+        <f>A81&amp;"', '"&amp;B81&amp;"', '"&amp;C81&amp;"', '"&amp;D81&amp;"', '"&amp;E81&amp;"', '"&amp;F81&amp;"', '"&amp;G81</f>
+        <v>79', 'fleurs', '', '', 'NULL', 'NULL', '</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" t="str">
+        <f>A82&amp;"', '"&amp;B82&amp;"', '"&amp;C82&amp;"', '"&amp;D82&amp;"', '"&amp;E82&amp;"', '"&amp;F82&amp;"', '"&amp;G82</f>
+        <v>80', 'rochers', '', '', 'NULL', 'NULL', '</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" t="str">
+        <f t="shared" ref="B175:B186" si="1">A83&amp;"', '"&amp;B83&amp;"', '"&amp;C83&amp;"', '"&amp;D83&amp;"', '"&amp;E83&amp;"', '"&amp;F83&amp;"', '"&amp;G83</f>
+        <v>81', 'lampadaire', '', '', 'NULL', 'NULL', '</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" t="str">
+        <f t="shared" si="1"/>
+        <v>82', 'statue', '', '', 'NULL', 'NULL', '</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" t="str">
+        <f t="shared" si="1"/>
+        <v>83', 'tente', '', '', 'NULL', 'NULL', '</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" t="str">
+        <f t="shared" si="1"/>
+        <v>84', 'fontaine', '', '', 'NULL', 'NULL', '</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" t="str">
+        <f t="shared" si="1"/>
+        <v>85', 'petite maison', '', '', 'NULL', 'NULL', '</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" t="str">
+        <f t="shared" si="1"/>
+        <v>86', 'mur de berlin', '', '', 'NULL', 'NULL', '</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" t="str">
+        <f t="shared" si="1"/>
+        <v>87', 'seau', '', '', 'NULL', 'NULL', '</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" t="str">
+        <f t="shared" si="1"/>
+        <v>88', 'clôture', '', '', 'NULL', 'NULL', '</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" t="str">
+        <f t="shared" si="1"/>
+        <v>89', 'xp', '', '', 'NULL', 'NULL', '</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6382,697 +6959,820 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4908D6-739E-487D-92BB-5EB515A84962}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="27"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="25" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="25" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="25" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="27"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="25">
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="17">
         <v>1</v>
       </c>
-      <c r="V3" s="27"/>
+      <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="A4" s="23">
         <v>2</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="25">
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="17">
         <v>1</v>
       </c>
-      <c r="V4" s="27"/>
+      <c r="V4" s="19"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
+      <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="25">
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="17">
         <v>1</v>
       </c>
-      <c r="V5" s="27"/>
+      <c r="V5" s="19"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
+      <c r="A6" s="23">
         <v>4</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="25">
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="17">
         <v>1</v>
       </c>
-      <c r="V6" s="27"/>
+      <c r="V6" s="19"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+      <c r="A7" s="23">
         <v>5</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="25">
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="17">
         <v>1</v>
       </c>
-      <c r="V7" s="27"/>
+      <c r="V7" s="19"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
+      <c r="A8" s="23">
         <v>6</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="25">
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="17">
         <v>1</v>
       </c>
-      <c r="V8" s="27"/>
+      <c r="V8" s="19"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="A9" s="23">
         <v>7</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="25">
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="17">
         <v>1</v>
       </c>
-      <c r="V9" s="27"/>
+      <c r="V9" s="19"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="A10" s="23">
         <v>8</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="25">
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="17">
         <v>1</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="19"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="A11" s="23">
         <v>9</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="25">
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="17">
         <v>2</v>
       </c>
-      <c r="V11" s="27"/>
+      <c r="V11" s="19"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+      <c r="A12" s="23">
         <v>10</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="25">
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="17">
         <v>2</v>
       </c>
-      <c r="V12" s="27"/>
+      <c r="V12" s="19"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
+      <c r="A13" s="23">
         <v>11</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="28" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="25">
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="17">
         <v>2</v>
       </c>
-      <c r="V13" s="27"/>
+      <c r="V13" s="19"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
+      <c r="A14" s="23">
         <v>12</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="28" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="25">
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="17">
         <v>2</v>
       </c>
-      <c r="V14" s="27"/>
+      <c r="V14" s="19"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+      <c r="A15" s="23">
         <v>13</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="25">
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="17">
         <v>2</v>
       </c>
-      <c r="V15" s="27"/>
+      <c r="V15" s="19"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
+      <c r="A16" s="23">
         <v>14</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="25">
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="17">
         <v>3</v>
       </c>
-      <c r="V16" s="27"/>
+      <c r="V16" s="19"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="A17" s="23">
         <v>15</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="28" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="25">
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="17">
         <v>3</v>
       </c>
-      <c r="V17" s="27"/>
+      <c r="V17" s="19"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
+      <c r="A18" s="23">
         <v>16</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="28" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="25">
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="17">
         <v>3</v>
       </c>
-      <c r="V18" s="27"/>
+      <c r="V18" s="19"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
+      <c r="A19" s="23">
         <v>17</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="28" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="25">
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="17">
         <v>4</v>
       </c>
-      <c r="V19" s="27"/>
+      <c r="V19" s="19"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
+      <c r="A20" s="23">
         <v>18</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="28" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="25">
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="17">
         <v>4</v>
       </c>
-      <c r="V20" s="27"/>
+      <c r="V20" s="19"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <f>A2&amp;", "&amp;C2&amp;", "&amp;E2&amp;", "&amp;G2&amp;", "&amp;I2&amp;", "&amp;U2</f>
+        <v>id_aptitude, nom_aptitude, effet_aptitude, prerequis_aptitude, description_aptitude, id_type_aptitude</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <f>A3&amp;"', '"&amp;C3&amp;"', '"&amp;E3&amp;"', '"&amp;G3&amp;"', '"&amp;I3&amp;"', '"&amp;U3</f>
+        <v>1', 'avancer', '', '', 'déplace le personnage vers l'avant', '1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <f t="shared" ref="B24:B42" si="0">A4&amp;"', '"&amp;C4&amp;"', '"&amp;E4&amp;"', '"&amp;G4&amp;"', '"&amp;I4&amp;"', '"&amp;U4</f>
+        <v>2', 'reculer', '', '', 'déplace le personnage vers l'arrière', '1</v>
+      </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>3', 'esquive droite', '', '', 'effectue un déplacement latéral vers la droite', '1</v>
+      </c>
       <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>4', 'esquive gauche', '', '', 'effectue un déplacement latéral vers la gauche', '1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>5', 'vitesse de déplacement', '', '', 'défini la vitesse de déplacement', '1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>6', 'vitesse d'attaque', '', '', 'défini la vitesse d'attaque', '1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>7', 'poids', '', '', 'défini la charge maximal avant pénalité de mobilité', '1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>8', 'puissance des sorts', '', '', 'défini la puissance des sorts de dégats ou la puissance des soins ', '1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>9', 'ballayage tranchant', '', '', 'effectue une attaque rotative avec son arme tranchante, et applique un effet de saignement pdt 5 sec', '2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>10', 'martellement lourd', '', '', 'effectue une attaque contre plongeante avec une arme contondante, et applique un effet d'étourdissement pdt 2 sec', '2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>11', 'tir incapacitant', '', '', 'effectue un tir à l'aide d'une arme a distance, et applique un effet d'estropier', '2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>12', 'parade', '', '', 'pare la prochaine attaque', '2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>13', 'contre-attaque', '', '', 'bloque une attaque physique et riposte a l'aide de son arme en mélée (Ne peut être paré, esquivé ou bloqué)', '2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>14', 'aériennes', '', '', 'permet l'utilisation de montures aériennes', '3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>15', 'terrestres', '', '', 'permet l'utilisation de montures terrestre', '3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="str">
+        <f>A18&amp;"', '"&amp;C18&amp;"', '"&amp;E18&amp;"', '"&amp;G18&amp;"', '"&amp;I18&amp;"', '"&amp;U18</f>
+        <v>16', 'aquatiques', '', '', 'permet l'utilisation de montures aquatique', '3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>17', 'boule de feu', '', '', 'lance une boule de feu sur la cible et effectue des dégats', '4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>18', 'graine versatile', '', '', 'plante une graine sur une cible allié et la soigne sur la durée pdt 10 sec OU une cible ennemie et lui inflige des dgt de nature sur la durée pdt 5 sec', '4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:T9"/>
-    <mergeCell ref="I10:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="I11:T11"/>
-    <mergeCell ref="I12:T12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="I20:T20"/>
-    <mergeCell ref="I14:T14"/>
-    <mergeCell ref="I15:T15"/>
-    <mergeCell ref="I16:T16"/>
-    <mergeCell ref="I17:T17"/>
-    <mergeCell ref="I18:T18"/>
-    <mergeCell ref="I19:T19"/>
-    <mergeCell ref="I13:T13"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I3:T3"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
+    <mergeCell ref="I6:T6"/>
+    <mergeCell ref="I7:T7"/>
+    <mergeCell ref="I8:T8"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -7097,57 +7797,46 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I3:T3"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
-    <mergeCell ref="I6:T6"/>
-    <mergeCell ref="I7:T7"/>
-    <mergeCell ref="I8:T8"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="I20:T20"/>
+    <mergeCell ref="I14:T14"/>
+    <mergeCell ref="I15:T15"/>
+    <mergeCell ref="I16:T16"/>
+    <mergeCell ref="I17:T17"/>
+    <mergeCell ref="I18:T18"/>
+    <mergeCell ref="I19:T19"/>
+    <mergeCell ref="I13:T13"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="I11:T11"/>
+    <mergeCell ref="I12:T12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:T9"/>
+    <mergeCell ref="I10:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="U11:V11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7156,10 +7845,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A331984-6932-484C-80C0-E5A2746DE888}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7177,356 +7866,416 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="B20" t="str">
+        <f>A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;", "&amp;F2&amp;", "&amp;G2</f>
+        <v>id_personnage, nom_personnage, niveau_personnage, direction_personnage, alignement_personnage, monnaie_personnage, vivant_personnage</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="B21" t="str">
+        <f>A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3</f>
+        <v>1', 'Bours-La', '', '', '', '', 'TRUE</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="B22" t="str">
+        <f t="shared" ref="B22:B37" si="0">A4&amp;"', '"&amp;B4&amp;"', '"&amp;C4&amp;"', '"&amp;D4&amp;"', '"&amp;E4&amp;"', '"&amp;F4&amp;"', '"&amp;G4</f>
+        <v>2', 'Bernard Tappir', '', '', '', '', 'TRUE</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>3', 'Lost Vegas', '', '', '', '', 'TRUE</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>4', 'Ohbar', '', '', '', '', 'TRUE</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>5', 'Toutavendre', '', '', '', '', 'TRUE</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>6', 'Hippique-sous', '', '', '', '', 'TRUE</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>7', 'Durdur', '', '', '', '', 'TRUE</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>8', 'Chie mi Hendrix', '', '', '', '', 'TRUE</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>9', 'Maitre Kanter', '', '', '', '', 'TRUE</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>10', 'Nana Moule Curry', '', '', '', '', 'TRUE</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>11', 'Iggy Pope', '', '', '', '', 'TRUE</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>12', 'Victoria-Big-B', '', '', '', '', 'TRUE</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>13', 'Alain Chichon', '', '', '', '', 'TRUE</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>14', 'Jean Marie le PNJ', '', '', '', '', 'TRUE</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>15', 'Die Anna', '', '', '', '', 'TRUE</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7535,10 +8284,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEA2D58-3A7E-47C7-BCA0-0384E20EEB23}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7548,337 +8297,554 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="5" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="C3" s="43"/>
-    </row>
-    <row r="4" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="C4" s="43"/>
-    </row>
-    <row r="5" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="C5" s="43"/>
-    </row>
-    <row r="6" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="C6" s="43"/>
-    </row>
-    <row r="7" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="C7" s="43"/>
-    </row>
-    <row r="8" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="C8" s="43"/>
-    </row>
-    <row r="9" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="C9" s="43"/>
-    </row>
-    <row r="10" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="C10" s="43"/>
-    </row>
-    <row r="11" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="C11" s="43"/>
-    </row>
-    <row r="12" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="C12" s="43"/>
-    </row>
-    <row r="13" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="C13" s="43"/>
-    </row>
-    <row r="14" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="C14" s="43"/>
-    </row>
-    <row r="15" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="C15" s="43"/>
-    </row>
-    <row r="16" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="C16" s="43"/>
-    </row>
-    <row r="17" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="C17" s="43"/>
-    </row>
-    <row r="18" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="C18" s="43"/>
-    </row>
-    <row r="19" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="C19" s="43"/>
-    </row>
-    <row r="20" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="C20" s="43"/>
-    </row>
-    <row r="21" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="C21" s="43"/>
-    </row>
-    <row r="22" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="C22" s="43"/>
-    </row>
-    <row r="23" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="C23" s="43"/>
-    </row>
-    <row r="24" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="C24" s="43"/>
-    </row>
-    <row r="25" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="C25" s="43"/>
-    </row>
-    <row r="26" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="C26" s="43"/>
-    </row>
-    <row r="27" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="C27" s="43"/>
-    </row>
-    <row r="28" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="C28" s="43"/>
-    </row>
-    <row r="29" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="C29" s="43"/>
-    </row>
-    <row r="30" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C30" s="43"/>
-    </row>
-    <row r="31" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="C31" s="43"/>
-    </row>
-    <row r="32" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="C32" s="43"/>
-    </row>
-    <row r="33" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="C33" s="43"/>
-    </row>
-    <row r="34" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="C34" s="43"/>
-    </row>
-    <row r="35" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="C35" s="43"/>
-    </row>
-    <row r="36" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="C36" s="43"/>
-    </row>
-    <row r="37" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="C37" s="43"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="str">
+        <f>A2&amp;", "&amp;B2</f>
+        <v>id_dialogue, contenu_dialogue</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="str">
+        <f>A3&amp;"', '"&amp;B3</f>
+        <v>1', 'Bonjour mon bon monsieur, je vous mettrais bien une petite bière ?</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="str">
+        <f t="shared" ref="B42:B105" si="0">A4&amp;"', '"&amp;B4</f>
+        <v>2', 'A votre santé !</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>3', 'Effectivement j'ai besoin d'aide, Toi l'amateur de bière j'ai besoin que tu ailles récupérer du bon houblon chez "Alain-Chichon", un fut chez "Maitre Kanter", et le dernier élement secret chez "Chie mi Hendrix"</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>4', 'Merci mon brave, voilà une bonne brune bien relevée. Bon chance !</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">5', 'Héééééé, toi la bas, tu veux de la bonne ? </v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">6', 'Et voila mon brave, du bon houblon, n'en mets pas trop si tu veux pas planer. A bientôt. </v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>7', 'Bon vent !</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>8', 'Hopla, qu'est ce que tu veux ici ?</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>9', 'Ca joue, voila ton fut une fois !</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>10', 'Ok, barre toi alors wesh</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>11', 'Salut fieu, j'ai concocté un gros paquet c'matin, t'en veux ?</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>12', 'Tiens, v'la l'sachet !</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>13', 'Je te comprends, peace</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>14', 'Bonjour mon enfant, tu veux une petite friandise ?</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>15', 'Tu devras aller chasser 4 chauves souris et les emener chez Durdur, pour qu'il te fabrique une Battte Ail.
+Ensuite, tu devras combattre le terrible Jean Marie le PNJ, vivant dans le noir. Tu pourras me récuperer son œil en guise de trophée.</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>16', 'Si la prochaine fois, tu veux une friandise, tu viendras me voir dans le confessional,</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>17', 'Je vais te faire courir moi tu vas voir, n'est ce pas ?</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>18', 'Vous êtes ici pour le Flouze ?</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>19', '??</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>20', 'Oui mon gars , des nains pas plus haut que trois pommes m'ont volé ma bourbourse. Tu dois rencontrer Hippique-sous pour obtenir des informations</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>21', 'Bonjour monsieur, venez vous delester de vos picèes ici, je vous en prie !</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>22', 'Et voilà la sauce du chef. Vous pourrez aller voir Durdur pour qu'il puisse vous forger une pièce rare, c'est un cadeau de Bernard. Bon courage.</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>23', 'Hallo ! Toi venir ici pour acheter armures ? Ja ?</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>24', 'Ach so, vous vouloir grosse casquette à pointe traditionnelle de mein land! Moi avoir ça derrière gros comptoir, gut gut gut ! Vous vouloir lancer apfel sur ma grosse pointe ?</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>25', 'Super gut, si toi atteindre ma pointe moi donner grosse boubourse ach,</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>26', 'Ha sacré voleur de schleu, merci pour ton aide mein freund, voici un joli pull ovaire fait par ma fille,</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="str">
+        <f t="shared" si="0"/>
+        <v>27', 'Bonjour mon lapin, tu es la pour mes gros objets fétiches, hihihi ?</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">28', 'Tu devras prouver tes talents en combat singulier à l'arène, mais pas avec n'importe quelle arme mon lapin ! </v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">29', 'Vous revenez de chez Victoria Big-B ? </v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="str">
+        <f t="shared" si="0"/>
+        <v>30', 'Tu verras ou je vais te les mettres ses objets !</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="str">
+        <f t="shared" si="0"/>
+        <v>31', 'Je suis en manque de vitesse, pouvez-vous m'aider ?</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="str">
+        <f t="shared" si="0"/>
+        <v>32', 'J'ai besoin de récupérer une potion à Nana Moule Curry au restaurant in&amp;out pour retrouver ma vitesse !</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="str">
+        <f t="shared" si="0"/>
+        <v>33', 'J'ai vendu la dernière la potion au casino Scissor Palace, vous devriez peut être y faire un tour ! Pour me faire pardonner je voulaisse ces Musse Tongue</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="str">
+        <f t="shared" si="0"/>
+        <v>34', 'Tu as pu récupérer ma potion pour ma vitesse?</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="str">
+        <f t="shared" si="0"/>
+        <v>35', 'Super on va pouvoir aller visiter le tunnel en Musse Tongue maintenant !</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7891,10 +8857,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86EBDF3-48AF-4172-A114-97EC40DA79E2}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7904,382 +8870,630 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>522</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="5" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="14" t="s">
         <v>553</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="C33" s="20"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="C34" s="20"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="C35" s="20"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="C36" s="20"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+      <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C37" s="20"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="A38" s="5">
         <v>36</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="C38" s="20"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="C39" s="20"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
+      <c r="A40" s="5">
         <v>38</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="C40" s="20"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+      <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="C41" s="20"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="A42" s="5">
         <v>40</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="C42" s="20"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>A2&amp;", "&amp;B2</f>
+        <v>id_embranchement, choix_embranchement</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>A3&amp;"', '"&amp;B3</f>
+        <v>1', 'M'fois biensur, et tu me mettras la petite sœur avec !</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" ref="A46:A109" si="0">A4&amp;"', '"&amp;B4</f>
+        <v>2', 'Tu m'as pris pour qui, un alcoolique? Je déconne tu m'en mettras 3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>3', 'C'est ici la bonne brune?</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>4', 'Non merci je préfère l'eau</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>5', 'J'accepte volontiers</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>6', 'Non merci j'ai d'autres choses à faire</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>7', 'J'aimerais commercer avec vous</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
+        <v>8', 'Je suis à la recherche de houblon pour me faire une bonne brune.</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
+        <v>9', 'Non, ça ca sent trop les fleurs ici !!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>10', 'Je voudrais récuperer un fut pour brasser</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
+        <v>11', 'Tu me remettras la petite sœur, et tu me changeras le verre, celui-ci goute le savon.
+J'aime bien la mousse mais il faut pas exagerer !</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="0"/>
+        <v>12', 'Mais pas si vite, ça fait d'la mousse,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
+        <v>13', 'Allons y, j'ai pris mon antiémétiques ce matin.</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" si="0"/>
+        <v>14', 'Ohbar m'a donné ce sachet pour récuperer un ingrédient secret.</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
+        <v>15', 'vu l'odeur, ca me ferait mal !</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="0"/>
+        <v>16', 'Il parait qu'un vampire rode dans les environs, besoin d'une croisade ?</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="0"/>
+        <v>17', 'Je voudrais parier.</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="0"/>
+        <v>18', 'J'aimerais vos conseils pour me lancer dans les affaires</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" si="0"/>
+        <v>19', 'C'est vous qui êtes à la recherche d'une Bourbourse ?</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f t="shared" si="0"/>
+        <v>20', 'Yep, j'accepte la grosse quête</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">21', 'Non, vous avez assez de flouze je voudrais le vôtre </v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" si="0"/>
+        <v>22', 'Non merci, je n'ai pas confiance.
+Je viens de la part de Nanard, il recherche sa boubourse perdue au dernier match de foot, vous auriez des infos ?</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f t="shared" si="0"/>
+        <v>23', 'Entre vous et ma femme, je vais peut-etre vous laisser mes economies,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f t="shared" si="0"/>
+        <v>24', 'Les frais ne sont pas assez O low cost !</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f t="shared" si="0"/>
+        <v>25', 'Vous avez pas plutôt des schnitzel?</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f t="shared" si="0"/>
+        <v>26', 'Jajaja, Muskatnuss herr Muller !</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f t="shared" si="0"/>
+        <v>27', 'C'est ici qu'on peut se procurer de l'équipement pour le concours de lancer de pomme?</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f t="shared" si="0"/>
+        <v>28', 'Jajaja, moi avoir plein de deutschmark</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f t="shared" si="0"/>
+        <v>29', 'Jajaja</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f t="shared" si="0"/>
+        <v>30', 'nein nein nein</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f t="shared" si="0"/>
+        <v>31', 'Biensur, et il n'y a pas que les objets qui sont gros hahaha. Plus c'est gros plus c'est bon,</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f t="shared" si="0"/>
+        <v>32', 'Quels objets ? Tu m'as pris pour une œuvre de Paul McCarthy !</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f t="shared" si="0"/>
+        <v>33', 'Oui j'ai besoin de ses objets fétiches !</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f t="shared" si="0"/>
+        <v>34', 'Non, je suis là pour me battre avec des gros durs !</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f t="shared" si="0"/>
+        <v>35', 'Tuer la reine, et récupérer les objets</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f t="shared" si="0"/>
+        <v>36', 'La laisser en vie et récupérer les objets de quelconque manière</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f t="shared" si="0"/>
+        <v>37', 'Oui biensur, je suis un trè bon pilote !</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f t="shared" si="0"/>
+        <v>38', 'Non, je n'ai pas le permis…</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f t="shared" si="0"/>
+        <v>39', 'Oui biensur, et j'ai même des Musse Tongue en prime pour voyager sereinement !</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f t="shared" si="0"/>
+        <v>40', 'Non, malheureusement Nana Moule Curry à vendu la dernière au Casino !</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8300,70 +9514,70 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -8386,10 +9600,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2519EBC5-E3A7-42C9-A500-76A022032C2E}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:BN12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8398,89 +9612,143 @@
     <col min="3" max="3" width="182.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>199</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:66" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:66" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:5" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:66" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:66" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B8" t="str">
+        <f>A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2</f>
+        <v>id_classe, nom_classe, description_classe, jouable_classe</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="str">
+        <f>A3&amp;", '"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3</f>
+        <v>1, 'guerrier', 'Certains prennent les armes en quête de gloire, de richesse, ou de vengeance. D’autres combattent pour faire leurs preuves, pour protéger des proches ou parce qu’ils ne savent rien faire d’autre. Et d’autres encore s’engagent sur la voie des armes pour affûter leur corps et démontrer leur courage lorsque le combat fait rage. Les guerriers, ces seigneurs du champ de bataille, forment un groupe hétéroclite. Ils s’entraînent à manier de nombreuses armes ou juste une, ils apprennent à utiliser les armures de manière optimale, ils suivent les enseignements martiaux de maîtres exotiques et étudient l’art de la guerre. Tout cela pour devenir de véritables armes vivantes. Ces combattants exceptionnels sont plus que de simples brutes : ils révèlent la véritable puissance des armes et transforment de simples morceaux de métal en outils permettant de soumettre des royaumes, de massacrer des monstres et d’unir des armées. Les guerriers sont des soldats, des chevaliers, des chasseurs, des artistes de la guerre et des champions sans égal. Malheur à ceux qui oseraient s’opposer à eux.', 'TRUE</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" ref="B10:B13" si="0">A4&amp;", '"&amp;B4&amp;"', '"&amp;C4&amp;"', '"&amp;D4</f>
+        <v>2, 'espion', 'Pour ceux qui subsistent grâce à leur vivacité d’esprit, la vie est une aventure sans fin. Ces espions qui semblent toujours sentir le danger à l’avance comptent sur leur ruse, leur habileté et leur charme pour tourner le destin à leur avantage. Comme on ne sait jamais à quoi s’attendre, ils se préparent à toutes les éventualités en acquérant de nombreuses compétences et en s’entraînant à devenir de fins manipulateurs, d’agiles acrobates, des ombres discrètes ou encore des experts dans des dizaines d’autres professions ou domaines. ', 'TRUE</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>3, 'psyker blanc', 'Les Psykers sont considérés de bien des manières différentes sur les innombrables mondes de l’Imperium. Les planètes les plus primitives voient en eux des chamans et des sorciers. Dans le cas d'un spyker blanc c'est son coté chamanisme qui a prédominé, Les sociétés les plus évoluées ont généralement conscience de leur nature et se réfèrent aux Psykers sous d’autres noms, "les élus", ou les "talentueux". Mais dans presque tous les cas et sur tous les mondes, les Psykers sont craints, pour les ténèbres et le Chaos qu’ils peuvent attirer vers ceux qui les entourent. En effet, les êtres à potentiel psychique tirent leurs pouvoirs des royaumes turbulents du Warp, également désignés comme l’Éther, l’Immaterium ou l’Empyrean, tel qu’il l’est dit dans le Scriptorum Arcanum. Cette dimension alternative est en fait un reflet déformé de l’univers physique connu, un royaume horrifiant, agité par un perpétuel changement qui défie les lois de l’univers matériel et habité par des entités malveillantes. Un Psyker qui utilise ses pouvoirs ouvre un portail entre les deux domaines afin d’attirer l’énergie du Warp en lui-même. Toutefois, s’il est inexpérimenté ou mal préparé, il peut par inadvertance attirer l’attention de Démons qui se jetteront sur lui comme des éphémères sur une flamme. Si l’on en croit les Codex de l’ordre énigmatique des Chasseurs de Démons de l’Ordo Malleus, ces entités du Warp peuvent traverser le lien que le Psyker forme entre les deux dimensions, s’emparant de son esprit et arrachant l’âme de son corps pour la traîner vers une existence de torture éternelle à l’intérieur du Warp. C’est pour cette raison que l’on se réfère parfois à cette dimension en la nommant la Mer des Âmes. Un Démon particulièrement puissant peut se frayer un chemin vers le monde physique en investissant le corps d’un Psyker, puis il se met en devoir d’infliger autant de souffrances que possible à cet univers matériel dans lequel nous vivons. ', 'TRUE</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>4, 'psyker noir', 'Les Psykers sont considérés de bien des manières différentes sur les innombrables mondes de l’Imperium. Les planètes les plus primitives voient en eux des chamans et des sorciers. Dans le cas d'un spyker blanc c'est son coté sorcier qui a prédominé, Les sociétés les plus évoluées ont généralement conscience de leur nature et se réfèrent aux Psykers sous d’autres noms, "les élus", ou les "talentueux". Mais dans presque tous les cas et sur tous les mondes, les Psykers sont craints, pour les ténèbres et le Chaos qu’ils peuvent attirer vers ceux qui les entourent. En effet, les êtres à potentiel psychique tirent leurs pouvoirs des royaumes turbulents du Warp, également désignés comme l’Éther, l’Immaterium ou l’Empyrean, tel qu’il l’est dit dans le Scriptorum Arcanum. Cette dimension alternative est en fait un reflet déformé de l’univers physique connu, un royaume horrifiant, agité par un perpétuel changement qui défie les lois de l’univers matériel et habité par des entités malveillantes. Un Psyker qui utilise ses pouvoirs ouvre un portail entre les deux domaines afin d’attirer l’énergie du Warp en lui-même. Toutefois, s’il est inexpérimenté ou mal préparé, il peut par inadvertance attirer l’attention de Démons qui se jetteront sur lui comme des éphémères sur une flamme. Si l’on en croit les Codex de l’ordre énigmatique des Chasseurs de Démons de l’Ordo Malleus, ces entités du Warp peuvent traverser le lien que le Psyker forme entre les deux dimensions, s’emparant de son esprit et arrachant l’âme de son corps pour la traîner vers une existence de torture éternelle à l’intérieur du Warp. C’est pour cette raison que l’on se réfère parfois à cette dimension en la nommant la Mer des Âmes. Un Démon particulièrement puissant peut se frayer un chemin vers le monde physique en investissant le corps d’un Psyker, puis il se met en devoir d’infliger autant de souffrances que possible à cet univers matériel dans lequel nous vivons. ', 'TRUE</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8501,448 +9769,448 @@
   <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:V39"/>
+      <selection activeCell="B32" sqref="B32:V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="V2" s="24"/>
+      <c r="V2" s="16"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="38" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="33" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="V3" s="33"/>
+      <c r="V3" s="25"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="33" t="s">
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="V6" s="33"/>
+      <c r="V6" s="25"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="25">
         <v>3</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="34" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="33" t="s">
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="V9" s="33"/>
+      <c r="V9" s="25"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="25">
         <v>4</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="33" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="V12" s="33"/>
+      <c r="V12" s="25"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>5</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="V15" s="24"/>
+      <c r="V15" s="16"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>6</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="V16" s="24"/>
+      <c r="V16" s="16"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
@@ -8950,578 +10218,594 @@
         <v>id_race, nom_race, description_race, jouable_race</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="41" t="str">
+    <row r="20" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="26" t="str">
         <f>A3&amp;", '"&amp;B3&amp;"', '"&amp;D3&amp;"', "&amp;U3</f>
         <v>1, 'Humains', 'Ambitieux, parfois héroïques, mais toujours confiants, les humains sont capables de travailler ensemble pour atteindre des objectifs communs, ce qui fait d’eux une puissance à ne pas négliger. Ils ont une espérance de vie réduite par rapport aux autres races, mais leur énergie sans limites et leurs passions leur permettent d’accomplir beaucoup de choses malgré leur brève existence.', TRUE</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="41" t="str">
+      <c r="B24" s="26" t="str">
         <f>A6&amp;", '"&amp;B6&amp;"', '"&amp;D6&amp;"', "&amp;U6</f>
         <v>2, 'Nains', 'On pense souvent que ces défenseurs des villes montagneuses petits et râblés sont sévères et dépourvus de tout sens de l’humour. Ils sont connus pour être des grand industriels dont les produit sont toujours d'une grande qualité et pour avoir une affinité particulière avec les richesses cachées dans les entrailles de la terre. Les nains ont aussi tendance à s’isoler et à se replier sur leurs traditions, au point de sombrer parfois dans la xénophobie.', TRUE</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="41" t="str">
+      <c r="B28" s="26" t="str">
         <f>A9&amp;", '"&amp;B9&amp;"', '"&amp;D9&amp;"', "&amp;U9</f>
         <v>3, 'Elfes', 'Grands, nobles et souvent hautains, les elfes à la longue espérance de vie sont les maîtres subtils de la nature. Ils excellent dans les arts magiques et utilisent souvent leur lien inné avec la nature pour inventer de nouveaux sorts et fabriquer de merveilleux objets qui, comme leurs créateurs, semblent presque hors d’atteinte des ravages du temps. Les elfes forment une race secrète et souvent introvertie, qui donne parfois l’impression d’être imperméable aux suppliques d’autrui.', FALSE</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="41" t="str">
+      <c r="B32" s="26" t="str">
         <f>A12&amp;", '"&amp;B12&amp;"', '"&amp;D12&amp;"', "&amp;U12</f>
         <v>4, 'Orques', 'Sauvages, brutaux et résistants, les orques sont souvent le fléau des lointaines étendues naturelles et des grottes profondes. Beaucoup deviennent de redoutables mercenaires, du fait de leur stature musculeuse et de leur tendance à entrer dans des rages sanglantes. Les quelques rares qui parviennent à contrôler leur soif de sang font d’excellents aventuriers.', TRUE</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
     </row>
     <row r="36" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="41" t="str">
+      <c r="B36" s="26" t="str">
         <f>A15&amp;", '"&amp;B15&amp;"', '"&amp;D15&amp;"', "&amp;U15</f>
         <v>5, 'Rat', '', FALSE</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
     </row>
     <row r="40" spans="2:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="41" t="str">
+      <c r="B40" s="26" t="str">
         <f>A16&amp;", '"&amp;B16&amp;"', '"&amp;D16&amp;"', "&amp;U16</f>
         <v>6, 'Chauve souris', '', FALSE</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="41"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D16:T16"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="D12:T14"/>
+    <mergeCell ref="D15:T15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="D6:T8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="D9:T11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D3:T5"/>
+    <mergeCell ref="D2:T2"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="U3:V5"/>
@@ -9538,22 +10822,6 @@
     <mergeCell ref="U12:V14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:T16"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="D12:T14"/>
-    <mergeCell ref="D15:T15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="D6:T8"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="D9:T11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="D3:T5"/>
-    <mergeCell ref="D2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9571,262 +10839,243 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="29"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="29"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="21"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="29"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="28" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="29"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="21"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="29"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="21"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="28" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="29"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="21"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="29"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="21"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="29"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:P3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:P4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:P5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:P7"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:P10"/>
@@ -9836,6 +11085,25 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:P9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:P4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9843,10 +11111,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D76AC6-E2F4-49B7-B143-59DA31191EF4}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9857,12 +11125,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -10015,24 +11283,114 @@
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <f>A2&amp;", "&amp;B2&amp;", "&amp;C2</f>
+        <v>id_type_objet, nom_type_objet, emplacement_objet</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <f>A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3</f>
+        <v>1', 'arme distance', 'slotArme1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <f t="shared" ref="B21:B33" si="0">A4&amp;"', '"&amp;B4&amp;"', '"&amp;C4</f>
+        <v>2', 'arme à 2 mains', 'slotArme1 &amp; slotArme2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>3', 'arme cac', 'slotArme2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>4', 'casque', 'slotTete</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>5', 'armure', 'slotTorse</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>6', 'gants', 'slotMains</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>7', 'pantalons', 'slotJambes</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>8', 'chaussures', 'slotPieds</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>9', 'potions', '</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>10', 'monnaies', '</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>11', 'objet de quetes', '</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>12', 'décor', '</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>13', 'types de portes', '</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>14', 'expériences', '</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10048,7 +11406,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10059,31 +11417,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="5" t="s">
         <v>135</v>
       </c>
@@ -10092,16 +11450,16 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="29"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="5"/>
       <c r="K3" t="str">
         <f>A2&amp;", "&amp;B2&amp;", "&amp;D2&amp;", "&amp;H2</f>
@@ -10112,16 +11470,16 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="29"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="5"/>
       <c r="J4" t="s">
         <v>129</v>
@@ -10138,16 +11496,16 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="29"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="5"/>
       <c r="J5" t="s">
         <v>129</v>
@@ -10164,16 +11522,16 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="29"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="5"/>
       <c r="J6" t="s">
         <v>129</v>
@@ -10190,16 +11548,16 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="29"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="5"/>
       <c r="J7" t="s">
         <v>129</v>
@@ -10216,16 +11574,16 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="29"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="5"/>
       <c r="J8" t="s">
         <v>129</v>
@@ -10242,16 +11600,16 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="29"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="5"/>
       <c r="J9" t="s">
         <v>129</v>
@@ -10268,16 +11626,16 @@
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="29"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="5"/>
       <c r="J10" t="s">
         <v>129</v>
@@ -10294,16 +11652,16 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="29"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="5"/>
       <c r="J11" t="s">
         <v>129</v>
@@ -10320,16 +11678,16 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="29"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="5"/>
       <c r="J12" t="s">
         <v>129</v>
@@ -10346,16 +11704,16 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="28" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="29"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="5"/>
       <c r="J13" t="s">
         <v>129</v>
@@ -10372,16 +11730,16 @@
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="29"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="5"/>
       <c r="J14" t="s">
         <v>129</v>
@@ -10398,16 +11756,16 @@
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="29"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="5"/>
       <c r="J15" t="s">
         <v>129</v>
@@ -10424,16 +11782,16 @@
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="29"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="5"/>
       <c r="J16" t="s">
         <v>129</v>
@@ -10450,16 +11808,16 @@
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="29"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="5"/>
       <c r="J17" t="s">
         <v>129</v>
@@ -10476,16 +11834,16 @@
       <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="28" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="29"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="5"/>
       <c r="J18" t="s">
         <v>129</v>
@@ -10502,16 +11860,16 @@
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="28" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="29"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="5"/>
       <c r="J19" t="s">
         <v>129</v>
@@ -10528,16 +11886,16 @@
       <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="28" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="29"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="5"/>
       <c r="J20" t="s">
         <v>129</v>
@@ -10554,16 +11912,16 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="28" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="29"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="5"/>
       <c r="J21" t="s">
         <v>129</v>
@@ -10580,16 +11938,16 @@
       <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="29"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="21"/>
       <c r="H22" s="5"/>
       <c r="J22" t="s">
         <v>129</v>
@@ -10606,16 +11964,16 @@
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="29"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="21"/>
       <c r="H23" s="5"/>
       <c r="J23" t="s">
         <v>129</v>
@@ -10642,18 +12000,23 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
@@ -10670,23 +12033,18 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10694,10 +12052,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577DA391-A061-463E-9151-E75A84D4AE68}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10706,389 +12064,509 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="30" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="P2" s="32"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="P3" s="32"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="30" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="32"/>
+      <c r="P4" s="24"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="30" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="P5" s="32"/>
+      <c r="P5" s="24"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="30" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="P6" s="32"/>
+      <c r="P6" s="24"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="30" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="P7" s="32"/>
+      <c r="P7" s="24"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="30" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="P8" s="32"/>
+      <c r="P8" s="24"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="P9" s="32"/>
+      <c r="P9" s="24"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="30" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="P10" s="32"/>
+      <c r="P10" s="24"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="P11" s="32"/>
+      <c r="P11" s="24"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="30" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="P12" s="32"/>
+      <c r="P12" s="24"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30" t="s">
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="P13" s="32"/>
+      <c r="P13" s="24"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="30" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="P14" s="32"/>
+      <c r="P14" s="24"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="30" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="P15" s="32"/>
+      <c r="P15" s="24"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="P16" s="32"/>
+      <c r="P16" s="24"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="str">
+        <f>A2&amp;", "&amp;B2&amp;", "&amp;D2&amp;", "&amp;O2</f>
+        <v>id_objectif, nom_objectif, description_objectif, validation_objectif</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="str">
+        <f>A3&amp;"', '"&amp;B3&amp;"', '"&amp;D3&amp;"', "&amp;O3</f>
+        <v>1', '', 'recuperer du houblon (Alain Chichon)', FALSE</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="str">
+        <f t="shared" ref="C22:C35" si="0">A4&amp;"', '"&amp;B4&amp;"', '"&amp;D4&amp;"', "&amp;O4</f>
+        <v>2', '', 'recuperer un fut (Maitre Kanter)', FALSE</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>3', '', 'recuperer un élement secret (Chie mi Hendrix)', FALSE</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>4', '', 'Aller tuer 4 chauves souris', FALSE</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>5', '', 'Aller recuperer l''arme chez Durdur', FALSE</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>6', '', 'Tuer Dracula (Jean Marie le PNJ)', FALSE</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>7', '', 'Aller voir Hippique-sous pour avoir des infos', FALSE</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>8', '', 'Donner des sousous à Durdur pour avoir une casquette à pointe afin de récupérer une boubourse à son concours de lancer de pommes', FALSE</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>9', '', 'Retourner voir Benard Tappir et lui donner la boubourse gagner au concours de lancer de pomme', FALSE</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>10', '', 'Combattre à l''arene', FALSE</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>11', '', 'Choisir de tuer ou non Bours-La', FALSE</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>12', '', 'Aller voir Nana Moule Curry pour récuperer la potion() a vendu la derniere potion au casino) elle lui donne une musse tongue à la place', FALSE</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>13', '', 'rejoindre Lost Vegas au Scissor Palace', FALSE</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>14', '', 'visiter le tunnel du pont en musse tongue avec Die Anna', FALSE</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="D13:N13"/>
+    <mergeCell ref="D14:N14"/>
+    <mergeCell ref="D15:N15"/>
+    <mergeCell ref="D16:N16"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D11:N11"/>
+    <mergeCell ref="D12:N12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:C2"/>
@@ -11105,36 +12583,6 @@
     <mergeCell ref="D4:N4"/>
     <mergeCell ref="D5:N5"/>
     <mergeCell ref="D6:N6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D13:N13"/>
-    <mergeCell ref="D14:N14"/>
-    <mergeCell ref="D15:N15"/>
-    <mergeCell ref="D16:N16"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="D7:N7"/>
-    <mergeCell ref="D8:N8"/>
-    <mergeCell ref="D9:N9"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D11:N11"/>
-    <mergeCell ref="D12:N12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11142,10 +12590,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A2B0F3-AA84-484A-B715-DF299C13792B}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11158,106 +12606,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="str">
+        <f>A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2</f>
+        <v>id_interaction, prerequis_interaction, nom_interaction, description_interaction, completion_interaction</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="str">
+        <f>A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3</f>
+        <v>1', '', 'Bonne brune', 'Mr Ohbar vous a demandé de faire de la bière brune</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f t="shared" ref="B13:B18" si="0">A4&amp;"', '"&amp;B4&amp;"', '"&amp;C4&amp;"', '"&amp;D4</f>
+        <v>2', '', 'Coco bel œil', 'Un vampire terrorise les habitants de la ville (Iggy Pope)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>3', '', 'Le voleur volé', 'Bernard Tappir vous demande de ramener une boubourse volée par les nains</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>4', '', 'Victoria secret', 'Victoria-Big-B vous demande d'aller chercher ses objets fétiches chez la reine Bours-La</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">5', '', 'Un carrosse dans le tunnel', 'Die Anna se sent lente, elle vous demande d'aller chercher le bipbip </v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>6', '', 'commerce', '</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
